--- a/BusyForcast/test_wynik.xlsx
+++ b/BusyForcast/test_wynik.xlsx
@@ -377,25 +377,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47916666666666669</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8666666666666667</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93333333333333335</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6333333333333333</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -404,7 +404,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49583333333333329</c:v>
+                  <c:v>0.13690476190476192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,22 +487,22 @@
                   <c:v>0.31666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49375000000000002</c:v>
+                  <c:v>6.0416666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26250000000000001</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -511,7 +511,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49255952380952384</c:v>
+                  <c:v>0.13601190476190478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,22 +594,22 @@
                   <c:v>0.34583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51145833333333335</c:v>
+                  <c:v>4.8958333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46388888888888891</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64583333333333337</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -618,7 +618,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50897817460317463</c:v>
+                  <c:v>0.13854166666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,28 +989,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85833333333333328</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90833333333333333</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5444444444444444</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53373015873015872</c:v>
+                  <c:v>0.20714285714285713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,28 +1096,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45833333333333331</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74583333333333335</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72916666666666663</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46111111111111114</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52083333333333337</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45833333333333331</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52956349206349207</c:v>
+                  <c:v>0.20714285714285713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,28 +1203,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49583333333333335</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66874999999999996</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61041666666666672</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44027777777777777</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54583333333333328</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55218253968253972</c:v>
+                  <c:v>0.20714285714285713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,34 +1576,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47916666666666669</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68333333333333335</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21249999999999999</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89583333333333326</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77083333333333326</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33888888888888885</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51478174603174598</c:v>
+                  <c:v>0.17202380952380952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,31 +1686,31 @@
                   <c:v>0.31666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49375000000000002</c:v>
+                  <c:v>6.0416666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29791666666666666</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7895833333333333</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63958333333333339</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4555555555555556</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52083333333333337</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45833333333333331</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51106150793650795</c:v>
+                  <c:v>0.17157738095238095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,31 +1793,31 @@
                   <c:v>0.34583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51145833333333335</c:v>
+                  <c:v>4.8958333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50277777777777777</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4458333333333333</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68437499999999996</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62812500000000004</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47013888888888888</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54583333333333328</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53058035714285712</c:v>
+                  <c:v>0.1728422619047619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4029,10 +4029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G24"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,73 +4139,73 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>20</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>20</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>20</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>20</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2">
         <v>20</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q2">
         <v>20</v>
       </c>
       <c r="R2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>20</v>
       </c>
       <c r="T2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U2">
         <v>20</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>20</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y2">
         <v>20</v>
       </c>
       <c r="Z2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA2">
         <v>20</v>
@@ -4222,73 +4222,73 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>80</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>80</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>80</v>
       </c>
       <c r="J3">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>80</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>80</v>
       </c>
       <c r="N3">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="O3">
         <v>80</v>
       </c>
       <c r="P3">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>80</v>
       </c>
       <c r="R3">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>80</v>
       </c>
       <c r="T3">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="U3">
         <v>80</v>
       </c>
       <c r="V3">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>80</v>
       </c>
       <c r="X3">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="Y3">
         <v>80</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA3">
         <v>80</v>
@@ -4305,73 +4305,73 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>60</v>
       </c>
       <c r="F4">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>60</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>60</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>60</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>60</v>
       </c>
       <c r="P4">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="Q4">
         <v>60</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <v>60</v>
       </c>
       <c r="T4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U4">
         <v>60</v>
       </c>
       <c r="V4">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>60</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4">
         <v>60</v>
       </c>
       <c r="Z4">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="AA4">
         <v>60</v>
@@ -4388,73 +4388,73 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>40</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>40</v>
       </c>
       <c r="J5">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>40</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>40</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>40</v>
       </c>
       <c r="P5">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>40</v>
       </c>
       <c r="R5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>40</v>
       </c>
       <c r="T5">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <v>40</v>
       </c>
       <c r="V5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>40</v>
       </c>
       <c r="X5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>40</v>
       </c>
       <c r="Z5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>40</v>
@@ -4471,73 +4471,73 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>20</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>20</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>20</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>20</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>20</v>
       </c>
       <c r="P6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q6">
         <v>20</v>
       </c>
       <c r="R6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <v>20</v>
       </c>
       <c r="T6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="U6">
         <v>20</v>
       </c>
       <c r="V6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>20</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y6">
         <v>20</v>
       </c>
       <c r="Z6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AA6">
         <v>20</v>
@@ -4554,73 +4554,73 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>20</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>20</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>20</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>20</v>
       </c>
       <c r="P7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>20</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7">
         <v>20</v>
       </c>
       <c r="T7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="U7">
         <v>20</v>
       </c>
       <c r="V7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>20</v>
       </c>
       <c r="X7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>20</v>
       </c>
       <c r="Z7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AA7">
         <v>20</v>
@@ -4637,73 +4637,73 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>20</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>20</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>20</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>20</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>20</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
       <c r="P8">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>20</v>
       </c>
       <c r="R8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S8">
         <v>20</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U8">
         <v>20</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>20</v>
       </c>
       <c r="X8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Y8">
         <v>20</v>
       </c>
       <c r="Z8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AA8">
         <v>20</v>
@@ -4720,73 +4720,73 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -4803,73 +4803,73 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -4886,73 +4886,73 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -4969,73 +4969,73 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -5052,13 +5052,13 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -5070,55 +5070,55 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>20</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>20</v>
       </c>
       <c r="N13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O13">
         <v>20</v>
       </c>
       <c r="P13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="Q13">
         <v>20</v>
       </c>
       <c r="R13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S13">
         <v>20</v>
       </c>
       <c r="T13">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="U13">
         <v>20</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W13">
         <v>20</v>
       </c>
       <c r="X13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y13">
         <v>20</v>
       </c>
       <c r="Z13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AA13">
         <v>20</v>
@@ -5135,31 +5135,31 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>20</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <v>20</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="M14">
         <v>20</v>
@@ -5177,31 +5177,31 @@
         <v>20</v>
       </c>
       <c r="R14">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S14">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="U14">
         <v>20</v>
       </c>
       <c r="V14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W14">
         <v>20</v>
       </c>
       <c r="X14">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="Y14">
         <v>20</v>
       </c>
       <c r="Z14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA14">
         <v>20</v>
@@ -5218,73 +5218,73 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>40</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>40</v>
       </c>
       <c r="J15">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <v>40</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M15">
         <v>40</v>
       </c>
       <c r="N15">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="O15">
         <v>40</v>
       </c>
       <c r="P15">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="Q15">
         <v>40</v>
       </c>
       <c r="R15">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S15">
         <v>40</v>
       </c>
       <c r="T15">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="U15">
         <v>40</v>
       </c>
       <c r="V15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="W15">
         <v>40</v>
       </c>
       <c r="X15">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Y15">
         <v>40</v>
       </c>
       <c r="Z15">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="AA15">
         <v>40</v>
@@ -5301,73 +5301,73 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>40</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>40</v>
       </c>
       <c r="J16">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>40</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>40</v>
       </c>
       <c r="N16">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O16">
         <v>40</v>
       </c>
       <c r="P16">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="Q16">
         <v>40</v>
       </c>
       <c r="R16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S16">
         <v>40</v>
       </c>
       <c r="T16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U16">
         <v>40</v>
       </c>
       <c r="V16">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="W16">
         <v>40</v>
       </c>
       <c r="X16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y16">
         <v>40</v>
       </c>
       <c r="Z16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AA16">
         <v>40</v>
@@ -5384,73 +5384,73 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>60</v>
       </c>
       <c r="F17">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>60</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>60</v>
       </c>
       <c r="J17">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>60</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>60</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17">
         <v>60</v>
       </c>
       <c r="P17">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="Q17">
         <v>60</v>
       </c>
       <c r="R17">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S17">
         <v>60</v>
       </c>
       <c r="T17">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="U17">
         <v>60</v>
       </c>
       <c r="V17">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="W17">
         <v>60</v>
       </c>
       <c r="X17">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>60</v>
       </c>
       <c r="Z17">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AA17">
         <v>60</v>
@@ -5467,73 +5467,73 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>40</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>40</v>
       </c>
       <c r="J18">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>40</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>40</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O18">
         <v>40</v>
       </c>
       <c r="P18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q18">
         <v>40</v>
       </c>
       <c r="R18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S18">
         <v>40</v>
       </c>
       <c r="T18">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="U18">
         <v>40</v>
       </c>
       <c r="V18">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="W18">
         <v>40</v>
       </c>
       <c r="X18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y18">
         <v>40</v>
       </c>
       <c r="Z18">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="AA18">
         <v>40</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -5568,55 +5568,55 @@
         <v>20</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K19">
         <v>20</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>20</v>
       </c>
       <c r="N19">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <v>20</v>
       </c>
       <c r="P19">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q19">
         <v>20</v>
       </c>
       <c r="R19">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S19">
         <v>20</v>
       </c>
       <c r="T19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U19">
         <v>20</v>
       </c>
       <c r="V19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W19">
         <v>20</v>
       </c>
       <c r="X19">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Y19">
         <v>20</v>
       </c>
       <c r="Z19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AA19">
         <v>20</v>
@@ -5633,19 +5633,19 @@
         <v>11</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>20</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>20</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>20</v>
@@ -5657,49 +5657,49 @@
         <v>20</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M20">
         <v>20</v>
       </c>
       <c r="N20">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O20">
         <v>20</v>
       </c>
       <c r="P20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q20">
         <v>20</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S20">
         <v>20</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U20">
         <v>20</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W20">
         <v>20</v>
       </c>
       <c r="X20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y20">
         <v>20</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA20">
         <v>20</v>
@@ -5716,7 +5716,7 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -5728,61 +5728,61 @@
         <v>80</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>80</v>
       </c>
       <c r="J21">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="K21">
         <v>80</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="M21">
         <v>80</v>
       </c>
       <c r="N21">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="O21">
         <v>80</v>
       </c>
       <c r="P21">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="Q21">
         <v>80</v>
       </c>
       <c r="R21">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="S21">
         <v>80</v>
       </c>
       <c r="T21">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="U21">
         <v>80</v>
       </c>
       <c r="V21">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="W21">
         <v>80</v>
       </c>
       <c r="X21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y21">
         <v>80</v>
       </c>
       <c r="Z21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA21">
         <v>80</v>
@@ -5799,73 +5799,73 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>60</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>60</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>60</v>
       </c>
       <c r="J22">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K22">
         <v>60</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M22">
         <v>60</v>
       </c>
       <c r="N22">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="O22">
         <v>60</v>
       </c>
       <c r="P22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q22">
         <v>60</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S22">
         <v>60</v>
       </c>
       <c r="T22">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="U22">
         <v>60</v>
       </c>
       <c r="V22">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="W22">
         <v>60</v>
       </c>
       <c r="X22">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Y22">
         <v>60</v>
       </c>
       <c r="Z22">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AA22">
         <v>60</v>
@@ -5882,49 +5882,49 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>40</v>
       </c>
       <c r="F23">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>40</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>40</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>40</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="M23">
         <v>40</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O23">
         <v>40</v>
       </c>
       <c r="P23">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Q23">
         <v>40</v>
       </c>
       <c r="R23">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S23">
         <v>40</v>
@@ -5936,19 +5936,19 @@
         <v>40</v>
       </c>
       <c r="V23">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="W23">
         <v>40</v>
       </c>
       <c r="X23">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Y23">
         <v>40</v>
       </c>
       <c r="Z23">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AA23">
         <v>40</v>
@@ -5965,73 +5965,73 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>20</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K24">
         <v>20</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M24">
         <v>20</v>
       </c>
       <c r="N24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O24">
         <v>20</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q24">
         <v>20</v>
       </c>
       <c r="R24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S24">
         <v>20</v>
       </c>
       <c r="T24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U24">
         <v>20</v>
       </c>
       <c r="V24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="W24">
         <v>20</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y24">
         <v>20</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA24">
         <v>20</v>
@@ -6048,25 +6048,25 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>20</v>
       </c>
       <c r="F25">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>20</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K25">
         <v>20</v>
@@ -6084,37 +6084,37 @@
         <v>20</v>
       </c>
       <c r="P25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q25">
         <v>20</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S25">
         <v>20</v>
       </c>
       <c r="T25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U25">
         <v>20</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W25">
         <v>20</v>
       </c>
       <c r="X25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y25">
         <v>20</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA25">
         <v>20</v>
@@ -6131,73 +6131,73 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>20</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>20</v>
       </c>
       <c r="J26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K26">
         <v>20</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M26">
         <v>20</v>
       </c>
       <c r="N26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O26">
         <v>20</v>
       </c>
       <c r="P26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q26">
         <v>20</v>
       </c>
       <c r="R26">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S26">
         <v>20</v>
       </c>
       <c r="T26">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="U26">
         <v>20</v>
       </c>
       <c r="V26">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="W26">
         <v>20</v>
       </c>
       <c r="X26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Y26">
         <v>20</v>
       </c>
       <c r="Z26">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA26">
         <v>20</v>
@@ -6214,73 +6214,73 @@
         <v>11</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -6297,73 +6297,73 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -6380,73 +6380,73 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>20</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>20</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29">
         <v>20</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K29">
         <v>20</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M29">
         <v>20</v>
       </c>
       <c r="N29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O29">
         <v>20</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q29">
         <v>20</v>
       </c>
       <c r="R29">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="S29">
         <v>20</v>
       </c>
       <c r="T29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="U29">
         <v>20</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W29">
         <v>20</v>
       </c>
       <c r="X29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y29">
         <v>20</v>
       </c>
       <c r="Z29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA29">
         <v>20</v>
@@ -6463,43 +6463,43 @@
         <v>12</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>80</v>
       </c>
       <c r="F30">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>80</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I30">
         <v>80</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K30">
         <v>80</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M30">
         <v>80</v>
       </c>
       <c r="N30">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O30">
         <v>80</v>
       </c>
       <c r="P30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q30">
         <v>80</v>
@@ -6511,13 +6511,13 @@
         <v>80</v>
       </c>
       <c r="T30">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="U30">
         <v>80</v>
       </c>
       <c r="V30">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="W30">
         <v>80</v>
@@ -6529,7 +6529,7 @@
         <v>80</v>
       </c>
       <c r="Z30">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AA30">
         <v>80</v>
@@ -6546,73 +6546,73 @@
         <v>12</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>60</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>60</v>
       </c>
       <c r="H31">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I31">
         <v>60</v>
       </c>
       <c r="J31">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <v>60</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M31">
         <v>60</v>
       </c>
       <c r="N31">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="O31">
         <v>60</v>
       </c>
       <c r="P31">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q31">
         <v>60</v>
       </c>
       <c r="R31">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="S31">
         <v>60</v>
       </c>
       <c r="T31">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="U31">
         <v>60</v>
       </c>
       <c r="V31">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="W31">
         <v>60</v>
       </c>
       <c r="X31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y31">
         <v>60</v>
       </c>
       <c r="Z31">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AA31">
         <v>60</v>
@@ -6629,73 +6629,73 @@
         <v>12</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>40</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>40</v>
       </c>
       <c r="H32">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I32">
         <v>40</v>
       </c>
       <c r="J32">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K32">
         <v>40</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M32">
         <v>40</v>
       </c>
       <c r="N32">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="O32">
         <v>40</v>
       </c>
       <c r="P32">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q32">
         <v>40</v>
       </c>
       <c r="R32">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S32">
         <v>40</v>
       </c>
       <c r="T32">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="U32">
         <v>40</v>
       </c>
       <c r="V32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W32">
         <v>40</v>
       </c>
       <c r="X32">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y32">
         <v>40</v>
       </c>
       <c r="Z32">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="AA32">
         <v>40</v>
@@ -6712,73 +6712,73 @@
         <v>12</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>20</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>20</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I33">
         <v>20</v>
       </c>
       <c r="J33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K33">
         <v>20</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M33">
         <v>20</v>
       </c>
       <c r="N33">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O33">
         <v>20</v>
       </c>
       <c r="P33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q33">
         <v>20</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S33">
         <v>20</v>
       </c>
       <c r="T33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U33">
         <v>20</v>
       </c>
       <c r="V33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W33">
         <v>20</v>
       </c>
       <c r="X33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y33">
         <v>20</v>
       </c>
       <c r="Z33">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA33">
         <v>20</v>
@@ -6795,73 +6795,73 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>20</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>20</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I34">
         <v>20</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K34">
         <v>20</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M34">
         <v>20</v>
       </c>
       <c r="N34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O34">
         <v>20</v>
       </c>
       <c r="P34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q34">
         <v>20</v>
       </c>
       <c r="R34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S34">
         <v>20</v>
       </c>
       <c r="T34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="U34">
         <v>20</v>
       </c>
       <c r="V34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W34">
         <v>20</v>
       </c>
       <c r="X34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y34">
         <v>20</v>
       </c>
       <c r="Z34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA34">
         <v>20</v>
@@ -6878,19 +6878,19 @@
         <v>12</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>20</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>20</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I35">
         <v>20</v>
@@ -6902,31 +6902,31 @@
         <v>20</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M35">
         <v>20</v>
       </c>
       <c r="N35">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O35">
         <v>20</v>
       </c>
       <c r="P35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q35">
         <v>20</v>
       </c>
       <c r="R35">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S35">
         <v>20</v>
       </c>
       <c r="T35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U35">
         <v>20</v>
@@ -6938,13 +6938,13 @@
         <v>20</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Y35">
         <v>20</v>
       </c>
       <c r="Z35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AA35">
         <v>20</v>
@@ -6961,73 +6961,73 @@
         <v>12</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -7044,73 +7044,73 @@
         <v>12</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -7127,73 +7127,73 @@
         <v>13</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>20</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G38">
         <v>20</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I38">
         <v>20</v>
       </c>
       <c r="J38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K38">
         <v>20</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M38">
         <v>20</v>
       </c>
       <c r="N38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O38">
         <v>20</v>
       </c>
       <c r="P38">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q38">
         <v>20</v>
       </c>
       <c r="R38">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S38">
         <v>20</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U38">
         <v>20</v>
       </c>
       <c r="V38">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W38">
         <v>20</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y38">
         <v>20</v>
       </c>
       <c r="Z38">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA38">
         <v>20</v>
@@ -7210,73 +7210,73 @@
         <v>13</v>
       </c>
       <c r="D39">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>80</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G39">
         <v>80</v>
       </c>
       <c r="H39">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="I39">
         <v>80</v>
       </c>
       <c r="J39">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="K39">
         <v>80</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M39">
         <v>80</v>
       </c>
       <c r="N39">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="O39">
         <v>80</v>
       </c>
       <c r="P39">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="Q39">
         <v>80</v>
       </c>
       <c r="R39">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="S39">
         <v>80</v>
       </c>
       <c r="T39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U39">
         <v>80</v>
       </c>
       <c r="V39">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="W39">
         <v>80</v>
       </c>
       <c r="X39">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="Y39">
         <v>80</v>
       </c>
       <c r="Z39">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AA39">
         <v>80</v>
@@ -7293,7 +7293,7 @@
         <v>13</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>60</v>
@@ -7305,61 +7305,61 @@
         <v>60</v>
       </c>
       <c r="H40">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I40">
         <v>60</v>
       </c>
       <c r="J40">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K40">
         <v>60</v>
       </c>
       <c r="L40">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="M40">
         <v>60</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O40">
         <v>60</v>
       </c>
       <c r="P40">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Q40">
         <v>60</v>
       </c>
       <c r="R40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S40">
         <v>60</v>
       </c>
       <c r="T40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U40">
         <v>60</v>
       </c>
       <c r="V40">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="W40">
         <v>60</v>
       </c>
       <c r="X40">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="Y40">
         <v>60</v>
       </c>
       <c r="Z40">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AA40">
         <v>60</v>
@@ -7376,73 +7376,73 @@
         <v>13</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G41">
         <v>40</v>
       </c>
       <c r="H41">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M41">
         <v>40</v>
       </c>
       <c r="N41">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="O41">
         <v>40</v>
       </c>
       <c r="P41">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Q41">
         <v>40</v>
       </c>
       <c r="R41">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S41">
         <v>40</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U41">
         <v>40</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="W41">
         <v>40</v>
       </c>
       <c r="X41">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y41">
         <v>40</v>
       </c>
       <c r="Z41">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AA41">
         <v>40</v>
@@ -7459,73 +7459,73 @@
         <v>13</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>20</v>
       </c>
       <c r="F42">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <v>20</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I42">
         <v>20</v>
       </c>
       <c r="J42">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K42">
         <v>20</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M42">
         <v>20</v>
       </c>
       <c r="N42">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O42">
         <v>20</v>
       </c>
       <c r="P42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q42">
         <v>20</v>
       </c>
       <c r="R42">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S42">
         <v>20</v>
       </c>
       <c r="T42">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U42">
         <v>20</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W42">
         <v>20</v>
       </c>
       <c r="X42">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y42">
         <v>20</v>
       </c>
       <c r="Z42">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA42">
         <v>20</v>
@@ -7542,73 +7542,73 @@
         <v>13</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>20</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>20</v>
       </c>
       <c r="H43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I43">
         <v>20</v>
       </c>
       <c r="J43">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K43">
         <v>20</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M43">
         <v>20</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O43">
         <v>20</v>
       </c>
       <c r="P43">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q43">
         <v>20</v>
       </c>
       <c r="R43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S43">
         <v>20</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U43">
         <v>20</v>
       </c>
       <c r="V43">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W43">
         <v>20</v>
       </c>
       <c r="X43">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y43">
         <v>20</v>
       </c>
       <c r="Z43">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA43">
         <v>20</v>
@@ -7625,73 +7625,73 @@
         <v>13</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>20</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G44">
         <v>20</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I44">
         <v>20</v>
       </c>
       <c r="J44">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K44">
         <v>20</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M44">
         <v>20</v>
       </c>
       <c r="N44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O44">
         <v>20</v>
       </c>
       <c r="P44">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q44">
         <v>20</v>
       </c>
       <c r="R44">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S44">
         <v>20</v>
       </c>
       <c r="T44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U44">
         <v>20</v>
       </c>
       <c r="V44">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="W44">
         <v>20</v>
       </c>
       <c r="X44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Y44">
         <v>20</v>
       </c>
       <c r="Z44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA44">
         <v>20</v>
@@ -7708,73 +7708,73 @@
         <v>13</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -7791,73 +7791,73 @@
         <v>13</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y46">
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -7874,73 +7874,73 @@
         <v>14</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>20</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>20</v>
       </c>
       <c r="H47">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>20</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>20</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>20</v>
       </c>
       <c r="N47">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>20</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>20</v>
       </c>
       <c r="R47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S47">
         <v>20</v>
       </c>
       <c r="T47">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U47">
         <v>20</v>
       </c>
       <c r="V47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <v>20</v>
       </c>
       <c r="X47">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>20</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
         <v>20</v>
@@ -7957,73 +7957,73 @@
         <v>14</v>
       </c>
       <c r="D48">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>80</v>
       </c>
       <c r="F48">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>80</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>80</v>
       </c>
       <c r="J48">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>80</v>
       </c>
       <c r="L48">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>80</v>
       </c>
       <c r="N48">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>80</v>
       </c>
       <c r="P48">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>80</v>
       </c>
       <c r="R48">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <v>80</v>
       </c>
       <c r="T48">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <v>80</v>
       </c>
       <c r="V48">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <v>80</v>
       </c>
       <c r="X48">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>80</v>
       </c>
       <c r="Z48">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AA48">
         <v>80</v>
@@ -8040,37 +8040,37 @@
         <v>14</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>60</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>60</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>60</v>
       </c>
       <c r="J49">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>60</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>60</v>
       </c>
       <c r="N49">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>60</v>
@@ -8082,31 +8082,31 @@
         <v>60</v>
       </c>
       <c r="R49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>60</v>
       </c>
       <c r="T49">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <v>60</v>
       </c>
       <c r="V49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W49">
         <v>60</v>
       </c>
       <c r="X49">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>60</v>
       </c>
       <c r="Z49">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>60</v>
@@ -8123,73 +8123,73 @@
         <v>14</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>40</v>
       </c>
       <c r="H50">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>40</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>40</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>40</v>
       </c>
       <c r="N50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <v>40</v>
       </c>
       <c r="P50">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>40</v>
       </c>
       <c r="R50">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <v>40</v>
       </c>
       <c r="T50">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <v>40</v>
       </c>
       <c r="V50">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <v>40</v>
       </c>
       <c r="X50">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>40</v>
       </c>
       <c r="Z50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA50">
         <v>40</v>
@@ -8206,31 +8206,31 @@
         <v>14</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>20</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>20</v>
       </c>
       <c r="H51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>20</v>
       </c>
       <c r="J51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>20</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>20</v>
@@ -8242,31 +8242,31 @@
         <v>20</v>
       </c>
       <c r="P51">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>20</v>
       </c>
       <c r="R51">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S51">
         <v>20</v>
       </c>
       <c r="T51">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>20</v>
       </c>
       <c r="V51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W51">
         <v>20</v>
       </c>
       <c r="X51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>20</v>
@@ -8295,67 +8295,67 @@
         <v>20</v>
       </c>
       <c r="F52">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>20</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>20</v>
       </c>
       <c r="J52">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>20</v>
       </c>
       <c r="L52">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>20</v>
       </c>
       <c r="N52">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>20</v>
       </c>
       <c r="P52">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>20</v>
       </c>
       <c r="R52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>20</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>20</v>
       </c>
       <c r="V52">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W52">
         <v>20</v>
       </c>
       <c r="X52">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>20</v>
       </c>
       <c r="Z52">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>20</v>
@@ -8372,73 +8372,73 @@
         <v>14</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>20</v>
       </c>
       <c r="F53">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>20</v>
       </c>
       <c r="H53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>20</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>20</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>20</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>20</v>
       </c>
       <c r="P53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>20</v>
       </c>
       <c r="R53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S53">
         <v>20</v>
       </c>
       <c r="T53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <v>20</v>
       </c>
       <c r="V53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>20</v>
       </c>
       <c r="X53">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>20</v>
       </c>
       <c r="Z53">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>20</v>
@@ -8455,7 +8455,7 @@
         <v>14</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>14</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -8621,73 +8621,73 @@
         <v>15</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E56">
         <v>20</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>20</v>
       </c>
       <c r="H56">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>20</v>
       </c>
       <c r="J56">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>20</v>
       </c>
       <c r="L56">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>20</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <v>20</v>
       </c>
       <c r="P56">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>20</v>
       </c>
       <c r="R56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S56">
         <v>20</v>
       </c>
       <c r="T56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U56">
         <v>20</v>
       </c>
       <c r="V56">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W56">
         <v>20</v>
       </c>
       <c r="X56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>20</v>
       </c>
       <c r="Z56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA56">
         <v>20</v>
@@ -8704,73 +8704,73 @@
         <v>15</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>80</v>
       </c>
       <c r="F57">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>80</v>
       </c>
       <c r="H57">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>80</v>
       </c>
       <c r="J57">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>80</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>80</v>
       </c>
       <c r="N57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>80</v>
       </c>
       <c r="P57">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <v>80</v>
       </c>
       <c r="R57">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <v>80</v>
       </c>
       <c r="T57">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="U57">
         <v>80</v>
       </c>
       <c r="V57">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="W57">
         <v>80</v>
       </c>
       <c r="X57">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>80</v>
       </c>
       <c r="Z57">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AA57">
         <v>80</v>
@@ -8787,73 +8787,73 @@
         <v>15</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>60</v>
       </c>
       <c r="F58">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>60</v>
       </c>
       <c r="H58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>60</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>60</v>
       </c>
       <c r="L58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>60</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>60</v>
       </c>
       <c r="P58">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <v>60</v>
       </c>
       <c r="R58">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="S58">
         <v>60</v>
       </c>
       <c r="T58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <v>60</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58">
         <v>60</v>
       </c>
       <c r="X58">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>60</v>
       </c>
       <c r="Z58">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>60</v>
@@ -8870,73 +8870,73 @@
         <v>15</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>40</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G59">
         <v>40</v>
       </c>
       <c r="H59">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>40</v>
       </c>
       <c r="J59">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>40</v>
       </c>
       <c r="L59">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>40</v>
       </c>
       <c r="N59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O59">
         <v>40</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>40</v>
       </c>
       <c r="R59">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="S59">
         <v>40</v>
       </c>
       <c r="T59">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="U59">
         <v>40</v>
       </c>
       <c r="V59">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="W59">
         <v>40</v>
       </c>
       <c r="X59">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>40</v>
       </c>
       <c r="Z59">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AA59">
         <v>40</v>
@@ -8953,73 +8953,73 @@
         <v>15</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>20</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>20</v>
       </c>
       <c r="H60">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>20</v>
       </c>
       <c r="J60">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>20</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>20</v>
       </c>
       <c r="N60">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O60">
         <v>20</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q60">
         <v>20</v>
       </c>
       <c r="R60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <v>20</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U60">
         <v>20</v>
       </c>
       <c r="V60">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W60">
         <v>20</v>
       </c>
       <c r="X60">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>20</v>
       </c>
       <c r="Z60">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA60">
         <v>20</v>
@@ -9036,25 +9036,25 @@
         <v>15</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>20</v>
       </c>
       <c r="F61">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>20</v>
       </c>
       <c r="H61">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>20</v>
       </c>
       <c r="J61">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>20</v>
@@ -9066,31 +9066,31 @@
         <v>20</v>
       </c>
       <c r="N61">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>20</v>
       </c>
       <c r="P61">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q61">
         <v>20</v>
       </c>
       <c r="R61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <v>20</v>
       </c>
       <c r="T61">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U61">
         <v>20</v>
       </c>
       <c r="V61">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W61">
         <v>20</v>
@@ -9119,73 +9119,73 @@
         <v>15</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>20</v>
       </c>
       <c r="F62">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>20</v>
       </c>
       <c r="H62">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>20</v>
       </c>
       <c r="J62">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>20</v>
       </c>
       <c r="L62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>20</v>
       </c>
       <c r="N62">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O62">
         <v>20</v>
       </c>
       <c r="P62">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>20</v>
       </c>
       <c r="R62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S62">
         <v>20</v>
       </c>
       <c r="T62">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U62">
         <v>20</v>
       </c>
       <c r="V62">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W62">
         <v>20</v>
       </c>
       <c r="X62">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>20</v>
       </c>
       <c r="Z62">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA62">
         <v>20</v>
@@ -9214,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -9285,7 +9285,7 @@
         <v>15</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -9368,73 +9368,73 @@
         <v>16</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <v>20</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>20</v>
       </c>
       <c r="H65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>20</v>
       </c>
       <c r="J65">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>20</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>20</v>
       </c>
       <c r="N65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O65">
         <v>20</v>
       </c>
       <c r="P65">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <v>20</v>
       </c>
       <c r="R65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S65">
         <v>20</v>
       </c>
       <c r="T65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U65">
         <v>20</v>
       </c>
       <c r="V65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W65">
         <v>20</v>
       </c>
       <c r="X65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y65">
         <v>20</v>
       </c>
       <c r="Z65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>20</v>
@@ -9451,73 +9451,73 @@
         <v>16</v>
       </c>
       <c r="D66">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>80</v>
       </c>
       <c r="F66">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>80</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>80</v>
       </c>
       <c r="J66">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>80</v>
       </c>
       <c r="L66">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>80</v>
       </c>
       <c r="N66">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <v>80</v>
       </c>
       <c r="P66">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q66">
         <v>80</v>
       </c>
       <c r="R66">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S66">
         <v>80</v>
       </c>
       <c r="T66">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U66">
         <v>80</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66">
         <v>80</v>
       </c>
       <c r="X66">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>80</v>
       </c>
       <c r="Z66">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AA66">
         <v>80</v>
@@ -9534,73 +9534,73 @@
         <v>16</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E67">
         <v>60</v>
       </c>
       <c r="F67">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>60</v>
       </c>
       <c r="H67">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>60</v>
       </c>
       <c r="J67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>60</v>
       </c>
       <c r="L67">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>60</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <v>60</v>
       </c>
       <c r="P67">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <v>60</v>
       </c>
       <c r="R67">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="S67">
         <v>60</v>
       </c>
       <c r="T67">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="U67">
         <v>60</v>
       </c>
       <c r="V67">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W67">
         <v>60</v>
       </c>
       <c r="X67">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>60</v>
       </c>
       <c r="Z67">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA67">
         <v>60</v>
@@ -9617,73 +9617,73 @@
         <v>16</v>
       </c>
       <c r="D68">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>40</v>
       </c>
       <c r="F68">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>40</v>
       </c>
       <c r="H68">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>40</v>
       </c>
       <c r="J68">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>40</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>40</v>
       </c>
       <c r="N68">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>40</v>
       </c>
       <c r="P68">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>40</v>
       </c>
       <c r="R68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S68">
         <v>40</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U68">
         <v>40</v>
       </c>
       <c r="V68">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="W68">
         <v>40</v>
       </c>
       <c r="X68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>40</v>
       </c>
       <c r="Z68">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>40</v>
@@ -9700,73 +9700,73 @@
         <v>16</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>20</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>20</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>20</v>
       </c>
       <c r="J69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>20</v>
       </c>
       <c r="L69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>20</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69">
         <v>20</v>
       </c>
       <c r="P69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q69">
         <v>20</v>
       </c>
       <c r="R69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S69">
         <v>20</v>
       </c>
       <c r="T69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U69">
         <v>20</v>
       </c>
       <c r="V69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W69">
         <v>20</v>
       </c>
       <c r="X69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>20</v>
       </c>
       <c r="Z69">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>20</v>
@@ -9783,19 +9783,19 @@
         <v>16</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>20</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>20</v>
       </c>
       <c r="H70">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>20</v>
@@ -9807,43 +9807,43 @@
         <v>20</v>
       </c>
       <c r="L70">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>20</v>
       </c>
       <c r="N70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <v>20</v>
       </c>
       <c r="P70">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>20</v>
       </c>
       <c r="R70">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S70">
         <v>20</v>
       </c>
       <c r="T70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U70">
         <v>20</v>
       </c>
       <c r="V70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W70">
         <v>20</v>
       </c>
       <c r="X70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>20</v>
@@ -9866,73 +9866,73 @@
         <v>16</v>
       </c>
       <c r="D71">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>20</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G71">
         <v>20</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>20</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>20</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>20</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>20</v>
       </c>
       <c r="P71">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>20</v>
       </c>
       <c r="R71">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <v>20</v>
       </c>
       <c r="T71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71">
         <v>20</v>
       </c>
       <c r="V71">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="W71">
         <v>20</v>
       </c>
       <c r="X71">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y71">
         <v>20</v>
       </c>
       <c r="Z71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>20</v>
@@ -10032,7 +10032,7 @@
         <v>16</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -10115,37 +10115,37 @@
         <v>17</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E74">
         <v>20</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>20</v>
       </c>
       <c r="H74">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>20</v>
       </c>
       <c r="J74">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>20</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>20</v>
       </c>
       <c r="N74">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O74">
         <v>20</v>
@@ -10157,31 +10157,31 @@
         <v>20</v>
       </c>
       <c r="R74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S74">
         <v>20</v>
       </c>
       <c r="T74">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U74">
         <v>20</v>
       </c>
       <c r="V74">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W74">
         <v>20</v>
       </c>
       <c r="X74">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>20</v>
       </c>
       <c r="Z74">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA74">
         <v>20</v>
@@ -10198,73 +10198,73 @@
         <v>17</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>80</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>80</v>
       </c>
       <c r="H75">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>80</v>
       </c>
       <c r="J75">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>80</v>
       </c>
       <c r="L75">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>80</v>
       </c>
       <c r="N75">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>80</v>
       </c>
       <c r="P75">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q75">
         <v>80</v>
       </c>
       <c r="R75">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="S75">
         <v>80</v>
       </c>
       <c r="T75">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="U75">
         <v>80</v>
       </c>
       <c r="V75">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W75">
         <v>80</v>
       </c>
       <c r="X75">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>80</v>
       </c>
       <c r="Z75">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AA75">
         <v>80</v>
@@ -10281,73 +10281,73 @@
         <v>17</v>
       </c>
       <c r="D76">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>60</v>
       </c>
       <c r="F76">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>60</v>
       </c>
       <c r="H76">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>60</v>
       </c>
       <c r="J76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>60</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>60</v>
       </c>
       <c r="N76">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O76">
         <v>60</v>
       </c>
       <c r="P76">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q76">
         <v>60</v>
       </c>
       <c r="R76">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S76">
         <v>60</v>
       </c>
       <c r="T76">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="U76">
         <v>60</v>
       </c>
       <c r="V76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W76">
         <v>60</v>
       </c>
       <c r="X76">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>60</v>
       </c>
       <c r="Z76">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA76">
         <v>60</v>
@@ -10364,73 +10364,73 @@
         <v>17</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E77">
         <v>40</v>
       </c>
       <c r="F77">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>40</v>
       </c>
       <c r="H77">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>40</v>
       </c>
       <c r="J77">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>40</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>40</v>
       </c>
       <c r="N77">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>40</v>
       </c>
       <c r="P77">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q77">
         <v>40</v>
       </c>
       <c r="R77">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S77">
         <v>40</v>
       </c>
       <c r="T77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U77">
         <v>40</v>
       </c>
       <c r="V77">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="W77">
         <v>40</v>
       </c>
       <c r="X77">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y77">
         <v>40</v>
       </c>
       <c r="Z77">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA77">
         <v>40</v>
@@ -10447,25 +10447,25 @@
         <v>17</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>20</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>20</v>
       </c>
       <c r="H78">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>20</v>
       </c>
       <c r="J78">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>20</v>
@@ -10477,31 +10477,31 @@
         <v>20</v>
       </c>
       <c r="N78">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>20</v>
       </c>
       <c r="P78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
         <v>20</v>
       </c>
       <c r="R78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S78">
         <v>20</v>
       </c>
       <c r="T78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U78">
         <v>20</v>
       </c>
       <c r="V78">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W78">
         <v>20</v>
@@ -10513,7 +10513,7 @@
         <v>20</v>
       </c>
       <c r="Z78">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA78">
         <v>20</v>
@@ -10530,19 +10530,19 @@
         <v>17</v>
       </c>
       <c r="D79">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>20</v>
       </c>
       <c r="F79">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>20</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>20</v>
@@ -10554,7 +10554,7 @@
         <v>20</v>
       </c>
       <c r="L79">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>20</v>
@@ -10566,37 +10566,37 @@
         <v>20</v>
       </c>
       <c r="P79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q79">
         <v>20</v>
       </c>
       <c r="R79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S79">
         <v>20</v>
       </c>
       <c r="T79">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U79">
         <v>20</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W79">
         <v>20</v>
       </c>
       <c r="X79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y79">
         <v>20</v>
       </c>
       <c r="Z79">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA79">
         <v>20</v>
@@ -10613,25 +10613,25 @@
         <v>17</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>20</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G80">
         <v>20</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>20</v>
       </c>
       <c r="J80">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>20</v>
@@ -10643,43 +10643,43 @@
         <v>20</v>
       </c>
       <c r="N80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O80">
         <v>20</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q80">
         <v>20</v>
       </c>
       <c r="R80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S80">
         <v>20</v>
       </c>
       <c r="T80">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U80">
         <v>20</v>
       </c>
       <c r="V80">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W80">
         <v>20</v>
       </c>
       <c r="X80">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y80">
         <v>20</v>
       </c>
       <c r="Z80">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA80">
         <v>20</v>
@@ -10696,7 +10696,7 @@
         <v>17</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -10779,7 +10779,7 @@
         <v>17</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -10862,31 +10862,31 @@
         <v>18</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E83">
         <v>20</v>
       </c>
       <c r="F83">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>20</v>
       </c>
       <c r="H83">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>20</v>
       </c>
       <c r="J83">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>20</v>
       </c>
       <c r="L83">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M83">
         <v>20</v>
@@ -10898,37 +10898,37 @@
         <v>20</v>
       </c>
       <c r="P83">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q83">
         <v>20</v>
       </c>
       <c r="R83">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S83">
         <v>20</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U83">
         <v>20</v>
       </c>
       <c r="V83">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W83">
         <v>20</v>
       </c>
       <c r="X83">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y83">
         <v>20</v>
       </c>
       <c r="Z83">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA83">
         <v>20</v>
@@ -10945,73 +10945,73 @@
         <v>18</v>
       </c>
       <c r="D84">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>80</v>
       </c>
       <c r="F84">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>80</v>
       </c>
       <c r="H84">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>80</v>
       </c>
       <c r="J84">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>80</v>
       </c>
       <c r="L84">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M84">
         <v>80</v>
       </c>
       <c r="N84">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="O84">
         <v>80</v>
       </c>
       <c r="P84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q84">
         <v>80</v>
       </c>
       <c r="R84">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="S84">
         <v>80</v>
       </c>
       <c r="T84">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="U84">
         <v>80</v>
       </c>
       <c r="V84">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="W84">
         <v>80</v>
       </c>
       <c r="X84">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Y84">
         <v>80</v>
       </c>
       <c r="Z84">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AA84">
         <v>80</v>
@@ -11028,73 +11028,73 @@
         <v>18</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>60</v>
       </c>
       <c r="F85">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>60</v>
       </c>
       <c r="H85">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>60</v>
       </c>
       <c r="J85">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>60</v>
       </c>
       <c r="L85">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>60</v>
       </c>
       <c r="N85">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <v>60</v>
       </c>
       <c r="P85">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q85">
         <v>60</v>
       </c>
       <c r="R85">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S85">
         <v>60</v>
       </c>
       <c r="T85">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="U85">
         <v>60</v>
       </c>
       <c r="V85">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="W85">
         <v>60</v>
       </c>
       <c r="X85">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Y85">
         <v>60</v>
       </c>
       <c r="Z85">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA85">
         <v>60</v>
@@ -11111,73 +11111,73 @@
         <v>18</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>40</v>
       </c>
       <c r="F86">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>40</v>
       </c>
       <c r="H86">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>40</v>
       </c>
       <c r="J86">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>40</v>
       </c>
       <c r="L86">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>40</v>
       </c>
       <c r="N86">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O86">
         <v>40</v>
       </c>
       <c r="P86">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <v>40</v>
       </c>
       <c r="R86">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S86">
         <v>40</v>
       </c>
       <c r="T86">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U86">
         <v>40</v>
       </c>
       <c r="V86">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W86">
         <v>40</v>
       </c>
       <c r="X86">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y86">
         <v>40</v>
       </c>
       <c r="Z86">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA86">
         <v>40</v>
@@ -11194,73 +11194,73 @@
         <v>18</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>20</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>20</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>20</v>
       </c>
       <c r="J87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>20</v>
       </c>
       <c r="L87">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M87">
         <v>20</v>
       </c>
       <c r="N87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O87">
         <v>20</v>
       </c>
       <c r="P87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q87">
         <v>20</v>
       </c>
       <c r="R87">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S87">
         <v>20</v>
       </c>
       <c r="T87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U87">
         <v>20</v>
       </c>
       <c r="V87">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W87">
         <v>20</v>
       </c>
       <c r="X87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y87">
         <v>20</v>
       </c>
       <c r="Z87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA87">
         <v>20</v>
@@ -11277,73 +11277,73 @@
         <v>18</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>20</v>
       </c>
       <c r="F88">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>20</v>
       </c>
       <c r="H88">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>20</v>
       </c>
       <c r="J88">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>20</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>20</v>
       </c>
       <c r="N88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O88">
         <v>20</v>
       </c>
       <c r="P88">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>20</v>
       </c>
       <c r="R88">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S88">
         <v>20</v>
       </c>
       <c r="T88">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U88">
         <v>20</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W88">
         <v>20</v>
       </c>
       <c r="X88">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y88">
         <v>20</v>
       </c>
       <c r="Z88">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA88">
         <v>20</v>
@@ -11360,19 +11360,19 @@
         <v>18</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>20</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>20</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>20</v>
@@ -11384,49 +11384,49 @@
         <v>20</v>
       </c>
       <c r="L89">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>20</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <v>20</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q89">
         <v>20</v>
       </c>
       <c r="R89">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S89">
         <v>20</v>
       </c>
       <c r="T89">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U89">
         <v>20</v>
       </c>
       <c r="V89">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="W89">
         <v>20</v>
       </c>
       <c r="X89">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y89">
         <v>20</v>
       </c>
       <c r="Z89">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA89">
         <v>20</v>
@@ -11526,7 +11526,7 @@
         <v>18</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -11609,13 +11609,13 @@
         <v>19</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E92">
         <v>20</v>
       </c>
       <c r="F92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>20</v>
@@ -11627,55 +11627,55 @@
         <v>20</v>
       </c>
       <c r="J92">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>20</v>
       </c>
       <c r="L92">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>20</v>
       </c>
       <c r="N92">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <v>20</v>
       </c>
       <c r="P92">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <v>20</v>
       </c>
       <c r="R92">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S92">
         <v>20</v>
       </c>
       <c r="T92">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U92">
         <v>20</v>
       </c>
       <c r="V92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W92">
         <v>20</v>
       </c>
       <c r="X92">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y92">
         <v>20</v>
       </c>
       <c r="Z92">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA92">
         <v>20</v>
@@ -11692,73 +11692,73 @@
         <v>19</v>
       </c>
       <c r="D93">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>80</v>
       </c>
       <c r="F93">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>80</v>
       </c>
       <c r="H93">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>80</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>80</v>
       </c>
       <c r="L93">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>80</v>
       </c>
       <c r="N93">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>80</v>
       </c>
       <c r="P93">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q93">
         <v>80</v>
       </c>
       <c r="R93">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="S93">
         <v>80</v>
       </c>
       <c r="T93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="U93">
         <v>80</v>
       </c>
       <c r="V93">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W93">
         <v>80</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y93">
         <v>80</v>
       </c>
       <c r="Z93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA93">
         <v>80</v>
@@ -11775,73 +11775,73 @@
         <v>19</v>
       </c>
       <c r="D94">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E94">
         <v>60</v>
       </c>
       <c r="F94">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>60</v>
       </c>
       <c r="H94">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>60</v>
       </c>
       <c r="J94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>60</v>
       </c>
       <c r="L94">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>60</v>
       </c>
       <c r="N94">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O94">
         <v>60</v>
       </c>
       <c r="P94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q94">
         <v>60</v>
       </c>
       <c r="R94">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S94">
         <v>60</v>
       </c>
       <c r="T94">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U94">
         <v>60</v>
       </c>
       <c r="V94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W94">
         <v>60</v>
       </c>
       <c r="X94">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y94">
         <v>60</v>
       </c>
       <c r="Z94">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA94">
         <v>60</v>
@@ -11858,73 +11858,73 @@
         <v>19</v>
       </c>
       <c r="D95">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>40</v>
       </c>
       <c r="F95">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>40</v>
       </c>
       <c r="H95">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>40</v>
       </c>
       <c r="J95">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>40</v>
       </c>
       <c r="L95">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>40</v>
       </c>
       <c r="N95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O95">
         <v>40</v>
       </c>
       <c r="P95">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q95">
         <v>40</v>
       </c>
       <c r="R95">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S95">
         <v>40</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U95">
         <v>40</v>
       </c>
       <c r="V95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W95">
         <v>40</v>
       </c>
       <c r="X95">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y95">
         <v>40</v>
       </c>
       <c r="Z95">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA95">
         <v>40</v>
@@ -11947,67 +11947,67 @@
         <v>20</v>
       </c>
       <c r="F96">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>20</v>
       </c>
       <c r="H96">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I96">
         <v>20</v>
       </c>
       <c r="J96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>20</v>
       </c>
       <c r="L96">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <v>20</v>
       </c>
       <c r="N96">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>20</v>
       </c>
       <c r="P96">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q96">
         <v>20</v>
       </c>
       <c r="R96">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S96">
         <v>20</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U96">
         <v>20</v>
       </c>
       <c r="V96">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W96">
         <v>20</v>
       </c>
       <c r="X96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y96">
         <v>20</v>
       </c>
       <c r="Z96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA96">
         <v>20</v>
@@ -12024,55 +12024,55 @@
         <v>19</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>20</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>20</v>
       </c>
       <c r="H97">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>20</v>
       </c>
       <c r="J97">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>20</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="M97">
         <v>20</v>
       </c>
       <c r="N97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O97">
         <v>20</v>
       </c>
       <c r="P97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q97">
         <v>20</v>
       </c>
       <c r="R97">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S97">
         <v>20</v>
       </c>
       <c r="T97">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <v>20</v>
@@ -12090,7 +12090,7 @@
         <v>20</v>
       </c>
       <c r="Z97">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA97">
         <v>20</v>
@@ -12107,55 +12107,55 @@
         <v>19</v>
       </c>
       <c r="D98">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>20</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>20</v>
       </c>
       <c r="H98">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>20</v>
       </c>
       <c r="J98">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>20</v>
       </c>
       <c r="L98">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>20</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <v>20</v>
       </c>
       <c r="P98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q98">
         <v>20</v>
       </c>
       <c r="R98">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S98">
         <v>20</v>
       </c>
       <c r="T98">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U98">
         <v>20</v>
@@ -12167,13 +12167,13 @@
         <v>20</v>
       </c>
       <c r="X98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y98">
         <v>20</v>
       </c>
       <c r="Z98">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA98">
         <v>20</v>
@@ -12273,7 +12273,7 @@
         <v>19</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -12356,7 +12356,7 @@
         <v>20</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -12439,61 +12439,61 @@
         <v>20</v>
       </c>
       <c r="D102">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>20</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>20</v>
       </c>
       <c r="H102">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>20</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K102">
         <v>20</v>
       </c>
       <c r="L102">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M102">
         <v>20</v>
       </c>
       <c r="N102">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O102">
         <v>20</v>
       </c>
       <c r="P102">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q102">
         <v>20</v>
       </c>
       <c r="R102">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S102">
         <v>20</v>
       </c>
       <c r="T102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U102">
         <v>20</v>
       </c>
       <c r="V102">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W102">
         <v>20</v>
@@ -12505,7 +12505,7 @@
         <v>20</v>
       </c>
       <c r="Z102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA102">
         <v>20</v>
@@ -12522,73 +12522,73 @@
         <v>20</v>
       </c>
       <c r="D103">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>60</v>
       </c>
       <c r="F103">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>60</v>
       </c>
       <c r="H103">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>60</v>
       </c>
       <c r="J103">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>60</v>
       </c>
       <c r="L103">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>60</v>
       </c>
       <c r="N103">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="O103">
         <v>60</v>
       </c>
       <c r="P103">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q103">
         <v>60</v>
       </c>
       <c r="R103">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S103">
         <v>60</v>
       </c>
       <c r="T103">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U103">
         <v>60</v>
       </c>
       <c r="V103">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W103">
         <v>60</v>
       </c>
       <c r="X103">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y103">
         <v>60</v>
       </c>
       <c r="Z103">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AA103">
         <v>60</v>
@@ -12605,13 +12605,13 @@
         <v>20</v>
       </c>
       <c r="D104">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>40</v>
       </c>
       <c r="F104">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>40</v>
@@ -12623,55 +12623,55 @@
         <v>40</v>
       </c>
       <c r="J104">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>40</v>
       </c>
       <c r="L104">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M104">
         <v>40</v>
       </c>
       <c r="N104">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O104">
         <v>40</v>
       </c>
       <c r="P104">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q104">
         <v>40</v>
       </c>
       <c r="R104">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S104">
         <v>40</v>
       </c>
       <c r="T104">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U104">
         <v>40</v>
       </c>
       <c r="V104">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W104">
         <v>40</v>
       </c>
       <c r="X104">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y104">
         <v>40</v>
       </c>
       <c r="Z104">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AA104">
         <v>40</v>
@@ -12688,73 +12688,73 @@
         <v>20</v>
       </c>
       <c r="D105">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>20</v>
       </c>
       <c r="F105">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>20</v>
       </c>
       <c r="H105">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I105">
         <v>20</v>
       </c>
       <c r="J105">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>20</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M105">
         <v>20</v>
       </c>
       <c r="N105">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O105">
         <v>20</v>
       </c>
       <c r="P105">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q105">
         <v>20</v>
       </c>
       <c r="R105">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S105">
         <v>20</v>
       </c>
       <c r="T105">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U105">
         <v>20</v>
       </c>
       <c r="V105">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W105">
         <v>20</v>
       </c>
       <c r="X105">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y105">
         <v>20</v>
       </c>
       <c r="Z105">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA105">
         <v>20</v>
@@ -12771,73 +12771,73 @@
         <v>20</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E106">
         <v>20</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>20</v>
       </c>
       <c r="H106">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>20</v>
       </c>
       <c r="J106">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <v>20</v>
       </c>
       <c r="L106">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M106">
         <v>20</v>
       </c>
       <c r="N106">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O106">
         <v>20</v>
       </c>
       <c r="P106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q106">
         <v>20</v>
       </c>
       <c r="R106">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="S106">
         <v>20</v>
       </c>
       <c r="T106">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U106">
         <v>20</v>
       </c>
       <c r="V106">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W106">
         <v>20</v>
       </c>
       <c r="X106">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y106">
         <v>20</v>
       </c>
       <c r="Z106">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA106">
         <v>20</v>
@@ -13020,7 +13020,7 @@
         <v>20</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -13032,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -13089,6 +13089,348 @@
         <v>0</v>
       </c>
       <c r="AA109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>39</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>39</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>39</v>
+      </c>
+      <c r="H113">
+        <v>39</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>39</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>53</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
         <v>0</v>
       </c>
     </row>
@@ -13102,7 +13444,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13146,7 +13488,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(SUM(dane!E2,dane!G2,dane!I2)&lt;&gt;0,SUM(dane!D2,dane!F2,dane!H2)/SUM(dane!E2,dane!G2,dane!I2),"N/A")</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C5" s="1">
         <f>IF(SUM(dane!E2,dane!G2,dane!I2,dane!K2,dane!M2,dane!O2)&lt;&gt;0,SUM(dane!D2,dane!F2,dane!H2,dane!J2,dane!L2,dane!N2)/SUM(dane!E2,dane!G2,dane!I2,dane!K2,dane!M2,dane!O2),"N/A")</f>
@@ -13163,15 +13505,15 @@
       </c>
       <c r="B6" s="1">
         <f>IF(SUM(dane!E3,dane!G3,dane!I3)&lt;&gt;0,SUM(dane!D3,dane!F3,dane!H3)/SUM(dane!E3,dane!G3,dane!I3),"N/A")</f>
-        <v>0.47916666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C6" s="1">
         <f>IF(SUM(dane!E3,dane!G3,dane!I3,dane!K3,dane!M3,dane!O3)&lt;&gt;0,SUM(dane!D3,dane!F3,dane!H3,dane!J3,dane!L3,dane!N3)/SUM(dane!E3,dane!G3,dane!I3,dane!K3,dane!M3,dane!O3),"N/A")</f>
-        <v>0.49375000000000002</v>
+        <v>6.0416666666666667E-2</v>
       </c>
       <c r="D6" s="1">
         <f>IF(SUM(dane!E3,dane!G3,dane!I3,dane!K3,dane!M3,dane!O3,dane!Q3,dane!S3,dane!U3,dane!W3,dane!Y3,dane!AA3)&lt;&gt;0,SUM(dane!D3,dane!F3,dane!H3,dane!J3,dane!L3,dane!N3,dane!P3,dane!R3,dane!T3,dane!V3,dane!X3,dane!Z3)/SUM(dane!E3,dane!G3,dane!I3,dane!K3,dane!M3,dane!O3,dane!Q3,dane!S3,dane!U3,dane!W3,dane!Y3,dane!AA3),"N/A")</f>
-        <v>0.51145833333333335</v>
+        <v>4.8958333333333333E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -13180,15 +13522,15 @@
       </c>
       <c r="B7" s="1">
         <f>IF(SUM(dane!E4,dane!G4,dane!I4)&lt;&gt;0,SUM(dane!D4,dane!F4,dane!H4)/SUM(dane!E4,dane!G4,dane!I4),"N/A")</f>
-        <v>0.8666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="1">
         <f>IF(SUM(dane!E4,dane!G4,dane!I4,dane!K4,dane!M4,dane!O4)&lt;&gt;0,SUM(dane!D4,dane!F4,dane!H4,dane!J4,dane!L4,dane!N4)/SUM(dane!E4,dane!G4,dane!I4,dane!K4,dane!M4,dane!O4),"N/A")</f>
-        <v>0.54166666666666663</v>
+        <v>0.05</v>
       </c>
       <c r="D7" s="1">
         <f>IF(SUM(dane!E4,dane!G4,dane!I4,dane!K4,dane!M4,dane!O4,dane!Q4,dane!S4,dane!U4,dane!W4,dane!Y4,dane!AA4)&lt;&gt;0,SUM(dane!D4,dane!F4,dane!H4,dane!J4,dane!L4,dane!N4,dane!P4,dane!R4,dane!T4,dane!V4,dane!X4,dane!Z4)/SUM(dane!E4,dane!G4,dane!I4,dane!K4,dane!M4,dane!O4,dane!Q4,dane!S4,dane!U4,dane!W4,dane!Y4,dane!AA4),"N/A")</f>
-        <v>0.46388888888888891</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -13197,15 +13539,15 @@
       </c>
       <c r="B8" s="1">
         <f>IF(SUM(dane!E5,dane!G5,dane!I5)&lt;&gt;0,SUM(dane!D5,dane!F5,dane!H5)/SUM(dane!E5,dane!G5,dane!I5),"N/A")</f>
-        <v>0.17499999999999999</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C8" s="1">
         <f>IF(SUM(dane!E5,dane!G5,dane!I5,dane!K5,dane!M5,dane!O5)&lt;&gt;0,SUM(dane!D5,dane!F5,dane!H5,dane!J5,dane!L5,dane!N5)/SUM(dane!E5,dane!G5,dane!I5,dane!K5,dane!M5,dane!O5),"N/A")</f>
-        <v>0.26250000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D8" s="1">
         <f>IF(SUM(dane!E5,dane!G5,dane!I5,dane!K5,dane!M5,dane!O5,dane!Q5,dane!S5,dane!U5,dane!W5,dane!Y5,dane!AA5)&lt;&gt;0,SUM(dane!D5,dane!F5,dane!H5,dane!J5,dane!L5,dane!N5,dane!P5,dane!R5,dane!T5,dane!V5,dane!X5,dane!Z5)/SUM(dane!E5,dane!G5,dane!I5,dane!K5,dane!M5,dane!O5,dane!Q5,dane!S5,dane!U5,dane!W5,dane!Y5,dane!AA5),"N/A")</f>
-        <v>0.39583333333333331</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -13214,15 +13556,15 @@
       </c>
       <c r="B9" s="1">
         <f>IF(SUM(dane!E6,dane!G6,dane!I6)&lt;&gt;0,SUM(dane!D6,dane!F6,dane!H6)/SUM(dane!E6,dane!G6,dane!I6),"N/A")</f>
-        <v>0.93333333333333335</v>
+        <v>0.15</v>
       </c>
       <c r="C9" s="1">
         <f>IF(SUM(dane!E6,dane!G6,dane!I6,dane!K6,dane!M6,dane!O6)&lt;&gt;0,SUM(dane!D6,dane!F6,dane!H6,dane!J6,dane!L6,dane!N6)/SUM(dane!E6,dane!G6,dane!I6,dane!K6,dane!M6,dane!O6),"N/A")</f>
-        <v>0.83333333333333337</v>
+        <v>0.15</v>
       </c>
       <c r="D9" s="1">
         <f>IF(SUM(dane!E6,dane!G6,dane!I6,dane!K6,dane!M6,dane!O6,dane!Q6,dane!S6,dane!U6,dane!W6,dane!Y6,dane!AA6)&lt;&gt;0,SUM(dane!D6,dane!F6,dane!H6,dane!J6,dane!L6,dane!N6,dane!P6,dane!R6,dane!T6,dane!V6,dane!X6,dane!Z6)/SUM(dane!E6,dane!G6,dane!I6,dane!K6,dane!M6,dane!O6,dane!Q6,dane!S6,dane!U6,dane!W6,dane!Y6,dane!AA6),"N/A")</f>
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -13231,15 +13573,15 @@
       </c>
       <c r="B10" s="1">
         <f>IF(SUM(dane!E7,dane!G7,dane!I7)&lt;&gt;0,SUM(dane!D7,dane!F7,dane!H7)/SUM(dane!E7,dane!G7,dane!I7),"N/A")</f>
-        <v>0.6333333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="C10" s="1">
         <f>IF(SUM(dane!E7,dane!G7,dane!I7,dane!K7,dane!M7,dane!O7)&lt;&gt;0,SUM(dane!D7,dane!F7,dane!H7,dane!J7,dane!L7,dane!N7)/SUM(dane!E7,dane!G7,dane!I7,dane!K7,dane!M7,dane!O7),"N/A")</f>
-        <v>0.55000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="D10" s="1">
         <f>IF(SUM(dane!E7,dane!G7,dane!I7,dane!K7,dane!M7,dane!O7,dane!Q7,dane!S7,dane!U7,dane!W7,dane!Y7,dane!AA7)&lt;&gt;0,SUM(dane!D7,dane!F7,dane!H7,dane!J7,dane!L7,dane!N7,dane!P7,dane!R7,dane!T7,dane!V7,dane!X7,dane!Z7)/SUM(dane!E7,dane!G7,dane!I7,dane!K7,dane!M7,dane!O7,dane!Q7,dane!S7,dane!U7,dane!W7,dane!Y7,dane!AA7),"N/A")</f>
-        <v>0.64583333333333337</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -13248,15 +13590,15 @@
       </c>
       <c r="B11" s="1">
         <f>IF(SUM(dane!E8,dane!G8,dane!I8)&lt;&gt;0,SUM(dane!D8,dane!F8,dane!H8)/SUM(dane!E8,dane!G8,dane!I8),"N/A")</f>
-        <v>0.13333333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="C11" s="1">
         <f>IF(SUM(dane!E8,dane!G8,dane!I8,dane!K8,dane!M8,dane!O8)&lt;&gt;0,SUM(dane!D8,dane!F8,dane!H8,dane!J8,dane!L8,dane!N8)/SUM(dane!E8,dane!G8,dane!I8,dane!K8,dane!M8,dane!O8),"N/A")</f>
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="D11" s="1">
         <f>IF(SUM(dane!E8,dane!G8,dane!I8,dane!K8,dane!M8,dane!O8,dane!Q8,dane!S8,dane!U8,dane!W8,dane!Y8,dane!AA8)&lt;&gt;0,SUM(dane!D8,dane!F8,dane!H8,dane!J8,dane!L8,dane!N8,dane!P8,dane!R8,dane!T8,dane!V8,dane!X8,dane!Z8)/SUM(dane!E8,dane!G8,dane!I8,dane!K8,dane!M8,dane!O8,dane!Q8,dane!S8,dane!U8,dane!W8,dane!Y8,dane!AA8),"N/A")</f>
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -13299,15 +13641,15 @@
       </c>
       <c r="B14" s="1">
         <f>AVERAGE(B5:B13)</f>
-        <v>0.49583333333333329</v>
+        <v>0.13690476190476192</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14:D14" si="0">AVERAGE(C5:C13)</f>
-        <v>0.49255952380952384</v>
+        <v>0.13601190476190478</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.50897817460317463</v>
+        <v>0.13854166666666667</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -13369,15 +13711,15 @@
       </c>
       <c r="B22" s="1">
         <f>IF(SUM(dane!E13,dane!G13,dane!I13)&lt;&gt;0,SUM(dane!D13,dane!F13,dane!H13)/SUM(dane!E13,dane!G13,dane!I13),"N/A")</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C22" s="1">
         <f>IF(SUM(dane!E13,dane!G13,dane!I13,dane!K13,dane!M13,dane!O13)&lt;&gt;0,SUM(dane!D13,dane!F13,dane!H13,dane!J13,dane!L13,dane!N13)/SUM(dane!E13,dane!G13,dane!I13,dane!K13,dane!M13,dane!O13),"N/A")</f>
-        <v>0.45833333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="D22" s="1">
         <f>IF(SUM(dane!E13,dane!G13,dane!I13,dane!K13,dane!M13,dane!O13,dane!Q13,dane!S13,dane!U13,dane!W13,dane!Y13,dane!AA13)&lt;&gt;0,SUM(dane!D13,dane!F13,dane!H13,dane!J13,dane!L13,dane!N13,dane!P13,dane!R13,dane!T13,dane!V13,dane!X13,dane!Z13)/SUM(dane!E13,dane!G13,dane!I13,dane!K13,dane!M13,dane!O13,dane!Q13,dane!S13,dane!U13,dane!W13,dane!Y13,dane!AA13),"N/A")</f>
-        <v>0.54166666666666663</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -13386,15 +13728,15 @@
       </c>
       <c r="B23" s="1">
         <f>IF(SUM(dane!E14,dane!G14,dane!I14)&lt;&gt;0,SUM(dane!D14,dane!F14,dane!H14)/SUM(dane!E14,dane!G14,dane!I14),"N/A")</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C23" s="1">
         <f>IF(SUM(dane!E14,dane!G14,dane!I14,dane!K14,dane!M14,dane!O14)&lt;&gt;0,SUM(dane!D14,dane!F14,dane!H14,dane!J14,dane!L14,dane!N14)/SUM(dane!E14,dane!G14,dane!I14,dane!K14,dane!M14,dane!O14),"N/A")</f>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="D23" s="1">
         <f>IF(SUM(dane!E14,dane!G14,dane!I14,dane!K14,dane!M14,dane!O14,dane!Q14,dane!S14,dane!U14,dane!W14,dane!Y14,dane!AA14)&lt;&gt;0,SUM(dane!D14,dane!F14,dane!H14,dane!J14,dane!L14,dane!N14,dane!P14,dane!R14,dane!T14,dane!V14,dane!X14,dane!Z14)/SUM(dane!E14,dane!G14,dane!I14,dane!K14,dane!M14,dane!O14,dane!Q14,dane!S14,dane!U14,dane!W14,dane!Y14,dane!AA14),"N/A")</f>
-        <v>0.49583333333333335</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -13403,15 +13745,15 @@
       </c>
       <c r="B24" s="1">
         <f>IF(SUM(dane!E15,dane!G15,dane!I15)&lt;&gt;0,SUM(dane!D15,dane!F15,dane!H15)/SUM(dane!E15,dane!G15,dane!I15),"N/A")</f>
-        <v>0.85833333333333328</v>
+        <v>0.15</v>
       </c>
       <c r="C24" s="1">
         <f>IF(SUM(dane!E15,dane!G15,dane!I15,dane!K15,dane!M15,dane!O15)&lt;&gt;0,SUM(dane!D15,dane!F15,dane!H15,dane!J15,dane!L15,dane!N15)/SUM(dane!E15,dane!G15,dane!I15,dane!K15,dane!M15,dane!O15),"N/A")</f>
-        <v>0.74583333333333335</v>
+        <v>0.15</v>
       </c>
       <c r="D24" s="1">
         <f>IF(SUM(dane!E15,dane!G15,dane!I15,dane!K15,dane!M15,dane!O15,dane!Q15,dane!S15,dane!U15,dane!W15,dane!Y15,dane!AA15)&lt;&gt;0,SUM(dane!D15,dane!F15,dane!H15,dane!J15,dane!L15,dane!N15,dane!P15,dane!R15,dane!T15,dane!V15,dane!X15,dane!Z15)/SUM(dane!E15,dane!G15,dane!I15,dane!K15,dane!M15,dane!O15,dane!Q15,dane!S15,dane!U15,dane!W15,dane!Y15,dane!AA15),"N/A")</f>
-        <v>0.66874999999999996</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -13420,15 +13762,15 @@
       </c>
       <c r="B25" s="1">
         <f>IF(SUM(dane!E16,dane!G16,dane!I16)&lt;&gt;0,SUM(dane!D16,dane!F16,dane!H16)/SUM(dane!E16,dane!G16,dane!I16),"N/A")</f>
-        <v>0.90833333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="C25" s="1">
         <f>IF(SUM(dane!E16,dane!G16,dane!I16,dane!K16,dane!M16,dane!O16)&lt;&gt;0,SUM(dane!D16,dane!F16,dane!H16,dane!J16,dane!L16,dane!N16)/SUM(dane!E16,dane!G16,dane!I16,dane!K16,dane!M16,dane!O16),"N/A")</f>
-        <v>0.72916666666666663</v>
+        <v>0.15</v>
       </c>
       <c r="D25" s="1">
         <f>IF(SUM(dane!E16,dane!G16,dane!I16,dane!K16,dane!M16,dane!O16,dane!Q16,dane!S16,dane!U16,dane!W16,dane!Y16,dane!AA16)&lt;&gt;0,SUM(dane!D16,dane!F16,dane!H16,dane!J16,dane!L16,dane!N16,dane!P16,dane!R16,dane!T16,dane!V16,dane!X16,dane!Z16)/SUM(dane!E16,dane!G16,dane!I16,dane!K16,dane!M16,dane!O16,dane!Q16,dane!S16,dane!U16,dane!W16,dane!Y16,dane!AA16),"N/A")</f>
-        <v>0.61041666666666672</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -13437,15 +13779,15 @@
       </c>
       <c r="B26" s="1">
         <f>IF(SUM(dane!E17,dane!G17,dane!I17)&lt;&gt;0,SUM(dane!D17,dane!F17,dane!H17)/SUM(dane!E17,dane!G17,dane!I17),"N/A")</f>
-        <v>0.5444444444444444</v>
+        <v>0.1</v>
       </c>
       <c r="C26" s="1">
         <f>IF(SUM(dane!E17,dane!G17,dane!I17,dane!K17,dane!M17,dane!O17)&lt;&gt;0,SUM(dane!D17,dane!F17,dane!H17,dane!J17,dane!L17,dane!N17)/SUM(dane!E17,dane!G17,dane!I17,dane!K17,dane!M17,dane!O17),"N/A")</f>
-        <v>0.46111111111111114</v>
+        <v>0.1</v>
       </c>
       <c r="D26" s="1">
         <f>IF(SUM(dane!E17,dane!G17,dane!I17,dane!K17,dane!M17,dane!O17,dane!Q17,dane!S17,dane!U17,dane!W17,dane!Y17,dane!AA17)&lt;&gt;0,SUM(dane!D17,dane!F17,dane!H17,dane!J17,dane!L17,dane!N17,dane!P17,dane!R17,dane!T17,dane!V17,dane!X17,dane!Z17)/SUM(dane!E17,dane!G17,dane!I17,dane!K17,dane!M17,dane!O17,dane!Q17,dane!S17,dane!U17,dane!W17,dane!Y17,dane!AA17),"N/A")</f>
-        <v>0.44027777777777777</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -13454,15 +13796,15 @@
       </c>
       <c r="B27" s="1">
         <f>IF(SUM(dane!E18,dane!G18,dane!I18)&lt;&gt;0,SUM(dane!D18,dane!F18,dane!H18)/SUM(dane!E18,dane!G18,dane!I18),"N/A")</f>
-        <v>0.47499999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="C27" s="1">
         <f>IF(SUM(dane!E18,dane!G18,dane!I18,dane!K18,dane!M18,dane!O18)&lt;&gt;0,SUM(dane!D18,dane!F18,dane!H18,dane!J18,dane!L18,dane!N18)/SUM(dane!E18,dane!G18,dane!I18,dane!K18,dane!M18,dane!O18),"N/A")</f>
-        <v>0.52083333333333337</v>
+        <v>0.15</v>
       </c>
       <c r="D27" s="1">
         <f>IF(SUM(dane!E18,dane!G18,dane!I18,dane!K18,dane!M18,dane!O18,dane!Q18,dane!S18,dane!U18,dane!W18,dane!Y18,dane!AA18)&lt;&gt;0,SUM(dane!D18,dane!F18,dane!H18,dane!J18,dane!L18,dane!N18,dane!P18,dane!R18,dane!T18,dane!V18,dane!X18,dane!Z18)/SUM(dane!E18,dane!G18,dane!I18,dane!K18,dane!M18,dane!O18,dane!Q18,dane!S18,dane!U18,dane!W18,dane!Y18,dane!AA18),"N/A")</f>
-        <v>0.54583333333333328</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -13471,15 +13813,15 @@
       </c>
       <c r="B28" s="1">
         <f>IF(SUM(dane!E19,dane!G19,dane!I19)&lt;&gt;0,SUM(dane!D19,dane!F19,dane!H19)/SUM(dane!E19,dane!G19,dane!I19),"N/A")</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C28" s="1">
         <f>IF(SUM(dane!E19,dane!G19,dane!I19,dane!K19,dane!M19,dane!O19)&lt;&gt;0,SUM(dane!D19,dane!F19,dane!H19,dane!J19,dane!L19,dane!N19)/SUM(dane!E19,dane!G19,dane!I19,dane!K19,dane!M19,dane!O19),"N/A")</f>
-        <v>0.45833333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="D28" s="1">
         <f>IF(SUM(dane!E19,dane!G19,dane!I19,dane!K19,dane!M19,dane!O19,dane!Q19,dane!S19,dane!U19,dane!W19,dane!Y19,dane!AA19)&lt;&gt;0,SUM(dane!D19,dane!F19,dane!H19,dane!J19,dane!L19,dane!N19,dane!P19,dane!R19,dane!T19,dane!V19,dane!X19,dane!Z19)/SUM(dane!E19,dane!G19,dane!I19,dane!K19,dane!M19,dane!O19,dane!Q19,dane!S19,dane!U19,dane!W19,dane!Y19,dane!AA19),"N/A")</f>
-        <v>0.5625</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -13488,15 +13830,15 @@
       </c>
       <c r="B29" s="1">
         <f>AVERAGE((B20:B28))</f>
-        <v>0.53373015873015872</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ref="C29:D29" si="1">AVERAGE((C20:C28))</f>
-        <v>0.52956349206349207</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>0.55218253968253972</v>
+        <v>0.20714285714285713</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -13524,7 +13866,7 @@
       </c>
       <c r="B35" s="1">
         <f>AVERAGE(B5,B20)</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C35" s="1">
         <f>AVERAGE(C5,C20)</f>
@@ -13540,16 +13882,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" ref="B36:D44" si="2">AVERAGE(B6,B21)</f>
-        <v>0.47916666666666669</v>
+        <f t="shared" ref="B36:D43" si="2">AVERAGE(B6,B21)</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="2"/>
-        <v>0.49375000000000002</v>
+        <v>6.0416666666666667E-2</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>0.51145833333333335</v>
+        <v>4.8958333333333333E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -13558,15 +13900,15 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="2"/>
-        <v>0.68333333333333335</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="2"/>
-        <v>0.50277777777777777</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -13575,15 +13917,15 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="2"/>
-        <v>0.21249999999999999</v>
+        <v>0.1875</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="2"/>
-        <v>0.29791666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="2"/>
-        <v>0.4458333333333333</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -13592,15 +13934,15 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" si="2"/>
-        <v>0.89583333333333326</v>
+        <v>0.15</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="2"/>
-        <v>0.7895833333333333</v>
+        <v>0.15</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="2"/>
-        <v>0.68437499999999996</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -13609,15 +13951,15 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="2"/>
-        <v>0.77083333333333326</v>
+        <v>0.15</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="2"/>
-        <v>0.63958333333333339</v>
+        <v>0.15</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="2"/>
-        <v>0.62812500000000004</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -13626,15 +13968,15 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" si="2"/>
-        <v>0.33888888888888885</v>
+        <v>0.125</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="2"/>
-        <v>0.4555555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="2"/>
-        <v>0.47013888888888888</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -13643,15 +13985,15 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" si="2"/>
-        <v>0.47499999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="2"/>
-        <v>0.52083333333333337</v>
+        <v>0.15</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="2"/>
-        <v>0.54583333333333328</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -13660,15 +14002,15 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="2"/>
-        <v>0.45833333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="2"/>
-        <v>0.5625</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -13676,16 +14018,16 @@
         <v>46</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.51478174603174598</v>
+        <f t="shared" ref="B36:D44" si="3">AVERAGE(B14,B29)</f>
+        <v>0.17202380952380952</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.51106150793650795</v>
+        <f t="shared" si="3"/>
+        <v>0.17157738095238095</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.53058035714285712</v>
+        <f t="shared" si="3"/>
+        <v>0.1728422619047619</v>
       </c>
     </row>
   </sheetData>

--- a/BusyForcast/test_wynik.xlsx
+++ b/BusyForcast/test_wynik.xlsx
@@ -377,34 +377,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>2.0408163265306121E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13690476190476192</c:v>
+                  <c:v>7.5024295432458699E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,34 +484,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.31666666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0416666666666667E-2</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>2.0408163265306121E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13601190476190478</c:v>
+                  <c:v>8.8629737609329448E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,34 +591,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.34583333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8958333333333333E-2</c:v>
+                  <c:v>2.6643990929705215E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>2.0408163265306121E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13854166666666667</c:v>
+                  <c:v>6.8626498218334955E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,31 +986,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38095238095238093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5238095238095233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20714285714285713</c:v>
+                  <c:v>0.2095238095238095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,31 +1093,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5238095238095233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20714285714285713</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,31 +1200,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30952380952380953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5238095238095233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20714285714285713</c:v>
+                  <c:v>0.19523809523809521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,34 +1576,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.17857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.20068027210884354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.11904761904761904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.125</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17202380952380952</c:v>
+                  <c:v>0.1422740524781341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,34 +1683,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.31666666666666665</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0416666666666667E-2</c:v>
+                  <c:v>0.17857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.17687074829931973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.11904761904761904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.125</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17157738095238095</c:v>
+                  <c:v>0.14431486880466474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,34 +1790,34 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.34583333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8958333333333333E-2</c:v>
+                  <c:v>0.15617913832199545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.16496598639455784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.11904761904761904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>2.8571428571428571E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15</c:v>
+                  <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.125</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1728422619047619</c:v>
+                  <c:v>0.13193229672821508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,17 +4032,17 @@
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="23" width="14.140625" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
+    <col min="4" max="23" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="15.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -4139,76 +4139,76 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -4222,76 +4222,76 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="L3">
         <v>3</v>
       </c>
       <c r="M3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>3</v>
       </c>
       <c r="O3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="S3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
       <c r="U3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="V3">
         <v>3</v>
       </c>
       <c r="W3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="X3">
         <v>3</v>
       </c>
       <c r="Y3">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="Z3">
         <v>3</v>
       </c>
       <c r="AA3">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -4308,73 +4308,73 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
       <c r="O4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="P4">
         <v>3</v>
       </c>
       <c r="Q4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="V4">
         <v>3</v>
       </c>
       <c r="W4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="X4">
         <v>3</v>
       </c>
       <c r="Y4">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="Z4">
         <v>3</v>
       </c>
       <c r="AA4">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -4391,73 +4391,73 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="V5">
         <v>3</v>
       </c>
       <c r="W5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="X5">
         <v>3</v>
       </c>
       <c r="Y5">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Z5">
         <v>3</v>
       </c>
       <c r="AA5">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -4474,73 +4474,73 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="N6">
         <v>3</v>
       </c>
       <c r="O6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="P6">
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="R6">
         <v>3</v>
       </c>
       <c r="S6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="V6">
         <v>3</v>
       </c>
       <c r="W6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="X6">
         <v>3</v>
       </c>
       <c r="Y6">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="Z6">
         <v>3</v>
       </c>
       <c r="AA6">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -4557,73 +4557,73 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>3</v>
       </c>
       <c r="O7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="P7">
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="R7">
         <v>3</v>
       </c>
       <c r="S7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="V7">
         <v>3</v>
       </c>
       <c r="W7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="X7">
         <v>3</v>
       </c>
       <c r="Y7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="Z7">
         <v>3</v>
       </c>
       <c r="AA7">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -4640,73 +4640,73 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N8">
         <v>3</v>
       </c>
       <c r="O8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="V8">
         <v>3</v>
       </c>
       <c r="W8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="X8">
         <v>3</v>
       </c>
       <c r="Y8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Z8">
         <v>3</v>
       </c>
       <c r="AA8">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -4723,73 +4723,73 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>3</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P9">
         <v>3</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V9">
         <v>3</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X9">
         <v>3</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z9">
         <v>3</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -4803,73 +4803,73 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -4886,73 +4886,73 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -4972,73 +4972,73 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J12">
         <v>6</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L12">
         <v>6</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>6</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P12">
         <v>6</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R12">
         <v>6</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T12">
         <v>6</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V12">
         <v>6</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X12">
         <v>6</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z12">
         <v>6</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -5055,73 +5055,73 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13">
         <v>6</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13">
         <v>6</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>6</v>
       </c>
       <c r="O13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P13">
         <v>6</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R13">
         <v>6</v>
       </c>
       <c r="S13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T13">
         <v>6</v>
       </c>
       <c r="U13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V13">
         <v>6</v>
       </c>
       <c r="W13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X13">
         <v>6</v>
       </c>
       <c r="Y13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z13">
         <v>6</v>
       </c>
       <c r="AA13">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -5138,73 +5138,73 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J14">
         <v>6</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L14">
         <v>6</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>6</v>
       </c>
       <c r="O14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P14">
         <v>6</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="R14">
         <v>6</v>
       </c>
       <c r="S14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="T14">
         <v>6</v>
       </c>
       <c r="U14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="V14">
         <v>6</v>
       </c>
       <c r="W14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="X14">
         <v>6</v>
       </c>
       <c r="Y14">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Z14">
         <v>6</v>
       </c>
       <c r="AA14">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -5221,73 +5221,73 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>6</v>
       </c>
       <c r="K15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>6</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>6</v>
       </c>
       <c r="O15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>6</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>6</v>
       </c>
       <c r="S15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>6</v>
       </c>
       <c r="U15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>6</v>
       </c>
       <c r="W15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>6</v>
       </c>
       <c r="Y15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>6</v>
       </c>
       <c r="AA15">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -5304,73 +5304,73 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>6</v>
       </c>
       <c r="K16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>6</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>6</v>
       </c>
       <c r="O16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>6</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>6</v>
       </c>
       <c r="S16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>6</v>
       </c>
       <c r="U16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>6</v>
       </c>
       <c r="W16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X16">
         <v>6</v>
       </c>
       <c r="Y16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>6</v>
       </c>
       <c r="AA16">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -5387,73 +5387,73 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L17">
         <v>6</v>
       </c>
       <c r="M17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>6</v>
       </c>
       <c r="O17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="P17">
         <v>6</v>
       </c>
       <c r="Q17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R17">
         <v>6</v>
       </c>
       <c r="S17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="T17">
         <v>6</v>
       </c>
       <c r="U17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="V17">
         <v>6</v>
       </c>
       <c r="W17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="X17">
         <v>6</v>
       </c>
       <c r="Y17">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Z17">
         <v>6</v>
       </c>
       <c r="AA17">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -5470,73 +5470,73 @@
         <v>6</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>6</v>
       </c>
       <c r="I18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L18">
         <v>6</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>6</v>
       </c>
       <c r="O18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P18">
         <v>6</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R18">
         <v>6</v>
       </c>
       <c r="S18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T18">
         <v>6</v>
       </c>
       <c r="U18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V18">
         <v>6</v>
       </c>
       <c r="W18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X18">
         <v>6</v>
       </c>
       <c r="Y18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z18">
         <v>6</v>
       </c>
       <c r="AA18">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -5550,76 +5550,76 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -5633,76 +5633,76 @@
         <v>11</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -5719,73 +5719,73 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="H21">
         <v>9</v>
       </c>
       <c r="I21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J21">
         <v>9</v>
       </c>
       <c r="K21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="L21">
         <v>9</v>
       </c>
       <c r="M21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="N21">
         <v>9</v>
       </c>
       <c r="O21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="P21">
         <v>9</v>
       </c>
       <c r="Q21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="R21">
         <v>9</v>
       </c>
       <c r="S21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="T21">
         <v>9</v>
       </c>
       <c r="U21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="V21">
         <v>9</v>
       </c>
       <c r="W21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="X21">
         <v>9</v>
       </c>
       <c r="Y21">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="Z21">
         <v>9</v>
       </c>
       <c r="AA21">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
@@ -5802,73 +5802,73 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>9</v>
       </c>
       <c r="G22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H22">
         <v>9</v>
       </c>
       <c r="I22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J22">
         <v>9</v>
       </c>
       <c r="K22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L22">
         <v>9</v>
       </c>
       <c r="M22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>9</v>
       </c>
       <c r="O22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P22">
         <v>9</v>
       </c>
       <c r="Q22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R22">
         <v>9</v>
       </c>
       <c r="S22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T22">
         <v>9</v>
       </c>
       <c r="U22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V22">
         <v>9</v>
       </c>
       <c r="W22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="X22">
         <v>9</v>
       </c>
       <c r="Y22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z22">
         <v>9</v>
       </c>
       <c r="AA22">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -5885,73 +5885,73 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="F23">
         <v>9</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="H23">
         <v>9</v>
       </c>
       <c r="I23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="J23">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="L23">
         <v>9</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="N23">
         <v>9</v>
       </c>
       <c r="O23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="P23">
         <v>9</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="R23">
         <v>9</v>
       </c>
       <c r="S23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="T23">
         <v>9</v>
       </c>
       <c r="U23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="V23">
         <v>9</v>
       </c>
       <c r="W23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="X23">
         <v>9</v>
       </c>
       <c r="Y23">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Z23">
         <v>9</v>
       </c>
       <c r="AA23">
-        <v>40</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -5968,73 +5968,73 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="H24">
         <v>9</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="J24">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="L24">
         <v>9</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="N24">
         <v>9</v>
       </c>
       <c r="O24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="P24">
         <v>9</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="R24">
         <v>9</v>
       </c>
       <c r="S24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="T24">
         <v>9</v>
       </c>
       <c r="U24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="V24">
         <v>9</v>
       </c>
       <c r="W24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="X24">
         <v>9</v>
       </c>
       <c r="Y24">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="Z24">
         <v>9</v>
       </c>
       <c r="AA24">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -6051,73 +6051,73 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F25">
         <v>9</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>9</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L25">
         <v>9</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>9</v>
       </c>
       <c r="O25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="P25">
         <v>9</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="R25">
         <v>9</v>
       </c>
       <c r="S25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="T25">
         <v>9</v>
       </c>
       <c r="U25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="V25">
         <v>9</v>
       </c>
       <c r="W25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="X25">
         <v>9</v>
       </c>
       <c r="Y25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="Z25">
         <v>9</v>
       </c>
       <c r="AA25">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -6134,73 +6134,73 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>9</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26">
         <v>9</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26">
         <v>9</v>
       </c>
       <c r="K26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26">
         <v>9</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>9</v>
       </c>
       <c r="O26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P26">
         <v>9</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R26">
         <v>9</v>
       </c>
       <c r="S26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T26">
         <v>9</v>
       </c>
       <c r="U26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V26">
         <v>9</v>
       </c>
       <c r="W26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X26">
         <v>9</v>
       </c>
       <c r="Y26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z26">
         <v>9</v>
       </c>
       <c r="AA26">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -6217,73 +6217,73 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <v>9</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H27">
         <v>9</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J27">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L27">
         <v>9</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>9</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P27">
         <v>9</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R27">
         <v>9</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T27">
         <v>9</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V27">
         <v>9</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X27">
         <v>9</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z27">
         <v>9</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -6297,73 +6297,73 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -6380,76 +6380,76 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -6466,73 +6466,73 @@
         <v>12</v>
       </c>
       <c r="E30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>12</v>
       </c>
       <c r="G30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>12</v>
       </c>
       <c r="I30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>12</v>
       </c>
       <c r="K30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>12</v>
       </c>
       <c r="M30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>12</v>
       </c>
       <c r="O30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>12</v>
       </c>
       <c r="Q30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>12</v>
       </c>
       <c r="S30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>12</v>
       </c>
       <c r="U30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>12</v>
       </c>
       <c r="W30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <v>12</v>
       </c>
       <c r="Y30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>12</v>
       </c>
       <c r="AA30">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -6549,73 +6549,73 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>12</v>
       </c>
       <c r="I31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>12</v>
       </c>
       <c r="K31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>12</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>12</v>
       </c>
       <c r="O31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>12</v>
       </c>
       <c r="Q31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>12</v>
       </c>
       <c r="S31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>12</v>
       </c>
       <c r="U31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>12</v>
       </c>
       <c r="W31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>12</v>
       </c>
       <c r="Y31">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>12</v>
       </c>
       <c r="AA31">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -6632,73 +6632,73 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F32">
         <v>12</v>
       </c>
       <c r="G32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H32">
         <v>12</v>
       </c>
       <c r="I32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J32">
         <v>12</v>
       </c>
       <c r="K32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="L32">
         <v>12</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="N32">
         <v>12</v>
       </c>
       <c r="O32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="P32">
         <v>12</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="R32">
         <v>12</v>
       </c>
       <c r="S32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="T32">
         <v>12</v>
       </c>
       <c r="U32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="V32">
         <v>12</v>
       </c>
       <c r="W32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="X32">
         <v>12</v>
       </c>
       <c r="Y32">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="Z32">
         <v>12</v>
       </c>
       <c r="AA32">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -6715,73 +6715,73 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F33">
         <v>12</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H33">
         <v>12</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J33">
         <v>12</v>
       </c>
       <c r="K33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L33">
         <v>12</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N33">
         <v>12</v>
       </c>
       <c r="O33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P33">
         <v>12</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="R33">
         <v>12</v>
       </c>
       <c r="S33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="T33">
         <v>12</v>
       </c>
       <c r="U33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="V33">
         <v>12</v>
       </c>
       <c r="W33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="X33">
         <v>12</v>
       </c>
       <c r="Y33">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Z33">
         <v>12</v>
       </c>
       <c r="AA33">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -6798,73 +6798,73 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F34">
         <v>12</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H34">
         <v>12</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>12</v>
       </c>
       <c r="K34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L34">
         <v>12</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>12</v>
       </c>
       <c r="O34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="P34">
         <v>12</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="R34">
         <v>12</v>
       </c>
       <c r="S34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="T34">
         <v>12</v>
       </c>
       <c r="U34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="V34">
         <v>12</v>
       </c>
       <c r="W34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="X34">
         <v>12</v>
       </c>
       <c r="Y34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="Z34">
         <v>12</v>
       </c>
       <c r="AA34">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -6881,73 +6881,73 @@
         <v>12</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>12</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>12</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>12</v>
       </c>
       <c r="O35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>12</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <v>12</v>
       </c>
       <c r="S35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <v>12</v>
       </c>
       <c r="U35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>12</v>
       </c>
       <c r="W35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>12</v>
       </c>
       <c r="Y35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>12</v>
       </c>
       <c r="AA35">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -7044,73 +7044,73 @@
         <v>12</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -7127,76 +7127,76 @@
         <v>13</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
@@ -7213,73 +7213,73 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F39">
         <v>15</v>
       </c>
       <c r="G39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="H39">
         <v>15</v>
       </c>
       <c r="I39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="J39">
         <v>15</v>
       </c>
       <c r="K39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="L39">
         <v>15</v>
       </c>
       <c r="M39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>15</v>
       </c>
       <c r="O39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="P39">
         <v>15</v>
       </c>
       <c r="Q39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="R39">
         <v>15</v>
       </c>
       <c r="S39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="T39">
         <v>15</v>
       </c>
       <c r="U39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="V39">
         <v>15</v>
       </c>
       <c r="W39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="X39">
         <v>15</v>
       </c>
       <c r="Y39">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="Z39">
         <v>15</v>
       </c>
       <c r="AA39">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -7296,73 +7296,73 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H40">
         <v>15</v>
       </c>
       <c r="I40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J40">
         <v>15</v>
       </c>
       <c r="K40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L40">
         <v>15</v>
       </c>
       <c r="M40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N40">
         <v>15</v>
       </c>
       <c r="O40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P40">
         <v>15</v>
       </c>
       <c r="Q40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R40">
         <v>15</v>
       </c>
       <c r="S40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T40">
         <v>15</v>
       </c>
       <c r="U40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V40">
         <v>15</v>
       </c>
       <c r="W40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="X40">
         <v>15</v>
       </c>
       <c r="Y40">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z40">
         <v>15</v>
       </c>
       <c r="AA40">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -7379,73 +7379,73 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F41">
         <v>15</v>
       </c>
       <c r="G41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="H41">
         <v>15</v>
       </c>
       <c r="I41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="J41">
         <v>15</v>
       </c>
       <c r="K41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="L41">
         <v>15</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="N41">
         <v>15</v>
       </c>
       <c r="O41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="P41">
         <v>15</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="R41">
         <v>15</v>
       </c>
       <c r="S41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="T41">
         <v>15</v>
       </c>
       <c r="U41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="V41">
         <v>15</v>
       </c>
       <c r="W41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="X41">
         <v>15</v>
       </c>
       <c r="Y41">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="Z41">
         <v>15</v>
       </c>
       <c r="AA41">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -7462,73 +7462,73 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F42">
         <v>15</v>
       </c>
       <c r="G42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H42">
         <v>15</v>
       </c>
       <c r="I42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J42">
         <v>15</v>
       </c>
       <c r="K42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L42">
         <v>15</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N42">
         <v>15</v>
       </c>
       <c r="O42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P42">
         <v>15</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="R42">
         <v>15</v>
       </c>
       <c r="S42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="T42">
         <v>15</v>
       </c>
       <c r="U42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="V42">
         <v>15</v>
       </c>
       <c r="W42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="X42">
         <v>15</v>
       </c>
       <c r="Y42">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Z42">
         <v>15</v>
       </c>
       <c r="AA42">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -7545,73 +7545,73 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F43">
         <v>15</v>
       </c>
       <c r="G43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H43">
         <v>15</v>
       </c>
       <c r="I43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J43">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L43">
         <v>15</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N43">
         <v>15</v>
       </c>
       <c r="O43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P43">
         <v>15</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="R43">
         <v>15</v>
       </c>
       <c r="S43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="T43">
         <v>15</v>
       </c>
       <c r="U43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="V43">
         <v>15</v>
       </c>
       <c r="W43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="X43">
         <v>15</v>
       </c>
       <c r="Y43">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Z43">
         <v>15</v>
       </c>
       <c r="AA43">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -7628,73 +7628,73 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44">
         <v>15</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H44">
         <v>15</v>
       </c>
       <c r="I44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44">
         <v>15</v>
       </c>
       <c r="K44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L44">
         <v>15</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>15</v>
       </c>
       <c r="O44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P44">
         <v>15</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R44">
         <v>15</v>
       </c>
       <c r="S44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T44">
         <v>15</v>
       </c>
       <c r="U44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V44">
         <v>15</v>
       </c>
       <c r="W44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X44">
         <v>15</v>
       </c>
       <c r="Y44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z44">
         <v>15</v>
       </c>
       <c r="AA44">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -7711,73 +7711,73 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F45">
         <v>15</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H45">
         <v>15</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J45">
         <v>15</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L45">
         <v>15</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>15</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P45">
         <v>15</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R45">
         <v>15</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T45">
         <v>15</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V45">
         <v>15</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X45">
         <v>15</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z45">
         <v>15</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -7791,73 +7791,73 @@
         <v>13</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -7874,76 +7874,76 @@
         <v>14</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X47">
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z47">
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -7960,73 +7960,73 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
       <c r="W48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="Z48">
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
@@ -8043,73 +8043,73 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
       <c r="S49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
       <c r="U49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
       <c r="W49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Z49">
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
@@ -8126,73 +8126,73 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
       <c r="W50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="X50">
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
@@ -8209,73 +8209,73 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
       <c r="S51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
       <c r="W51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="X51">
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
@@ -8292,73 +8292,73 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
       <c r="S52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
       <c r="U52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
       <c r="W52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X52">
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z52">
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
@@ -8375,73 +8375,73 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
       <c r="S53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
       <c r="U53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
       <c r="W53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X53">
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
@@ -8458,73 +8458,73 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X54">
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z54">
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
@@ -8538,7 +8538,7 @@
         <v>14</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -8621,76 +8621,76 @@
         <v>15</v>
       </c>
       <c r="D56">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
       <c r="W56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X56">
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z56">
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
@@ -8707,73 +8707,73 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
       <c r="U57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
       <c r="W57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z57">
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
@@ -8790,73 +8790,73 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
       <c r="S58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
       <c r="W58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="X58">
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Z58">
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
@@ -8873,73 +8873,73 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F59">
         <v>21</v>
       </c>
       <c r="G59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R59">
         <v>0</v>
       </c>
       <c r="S59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T59">
         <v>0</v>
       </c>
       <c r="U59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
       <c r="W59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X59">
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z59">
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
@@ -8956,73 +8956,73 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <v>0</v>
       </c>
       <c r="S60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T60">
         <v>0</v>
       </c>
       <c r="U60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
       <c r="W60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X60">
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z60">
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
@@ -9039,73 +9039,73 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X61">
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z61">
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
@@ -9122,73 +9122,73 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X62">
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z62">
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
@@ -9285,7 +9285,7 @@
         <v>15</v>
       </c>
       <c r="D64">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -9368,76 +9368,76 @@
         <v>16</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
       <c r="U65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V65">
         <v>0</v>
       </c>
       <c r="W65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X65">
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z65">
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
@@ -9454,73 +9454,73 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="T66">
         <v>0</v>
       </c>
       <c r="U66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="V66">
         <v>0</v>
       </c>
       <c r="W66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="Z66">
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
@@ -9537,73 +9537,73 @@
         <v>24</v>
       </c>
       <c r="E67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R67">
         <v>0</v>
       </c>
       <c r="S67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
       <c r="U67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
       <c r="W67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="X67">
         <v>0</v>
       </c>
       <c r="Y67">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z67">
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
@@ -9620,73 +9620,73 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R68">
         <v>0</v>
       </c>
       <c r="S68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
       <c r="W68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X68">
         <v>0</v>
       </c>
       <c r="Y68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z68">
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
@@ -9703,73 +9703,73 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R69">
         <v>0</v>
       </c>
       <c r="S69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
       <c r="U69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X69">
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z69">
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
@@ -9786,73 +9786,73 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R70">
         <v>0</v>
       </c>
       <c r="S70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
       <c r="U70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V70">
         <v>0</v>
       </c>
       <c r="W70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X70">
         <v>0</v>
       </c>
       <c r="Y70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z70">
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
@@ -9869,73 +9869,73 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>24</v>
       </c>
       <c r="G71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>0</v>
       </c>
       <c r="S71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T71">
         <v>0</v>
       </c>
       <c r="U71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V71">
         <v>0</v>
       </c>
       <c r="W71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X71">
         <v>0</v>
       </c>
       <c r="Y71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z71">
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
@@ -9952,73 +9952,73 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R72">
         <v>0</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V72">
         <v>0</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X72">
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z72">
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
         <v>16</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -10115,76 +10115,76 @@
         <v>17</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="S74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T74">
         <v>0</v>
       </c>
       <c r="U74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
       <c r="W74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X74">
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z74">
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
@@ -10201,73 +10201,73 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>0</v>
       </c>
       <c r="S75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T75">
         <v>0</v>
       </c>
       <c r="U75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V75">
         <v>0</v>
       </c>
       <c r="W75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X75">
         <v>0</v>
       </c>
       <c r="Y75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z75">
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
@@ -10284,73 +10284,73 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
       <c r="O76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="R76">
         <v>0</v>
       </c>
       <c r="S76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="V76">
         <v>0</v>
       </c>
       <c r="W76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="X76">
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Z76">
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
@@ -10367,73 +10367,73 @@
         <v>27</v>
       </c>
       <c r="E77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="O77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R77">
         <v>0</v>
       </c>
       <c r="S77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T77">
         <v>0</v>
       </c>
       <c r="U77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
       <c r="W77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X77">
         <v>0</v>
       </c>
       <c r="Y77">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z77">
         <v>0</v>
       </c>
       <c r="AA77">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
@@ -10450,73 +10450,73 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="R78">
         <v>0</v>
       </c>
       <c r="S78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
       <c r="U78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="V78">
         <v>0</v>
       </c>
       <c r="W78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="X78">
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Z78">
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
@@ -10533,73 +10533,73 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
       <c r="U79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V79">
         <v>0</v>
       </c>
       <c r="W79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X79">
         <v>0</v>
       </c>
       <c r="Y79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z79">
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
@@ -10616,73 +10616,73 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>27</v>
       </c>
       <c r="G80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R80">
         <v>0</v>
       </c>
       <c r="S80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V80">
         <v>0</v>
       </c>
       <c r="W80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X80">
         <v>0</v>
       </c>
       <c r="Y80">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z80">
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
@@ -10699,73 +10699,73 @@
         <v>27</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H81">
         <v>27</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T81">
         <v>0</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V81">
         <v>0</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z81">
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
@@ -10779,7 +10779,7 @@
         <v>17</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -10862,76 +10862,76 @@
         <v>18</v>
       </c>
       <c r="D83">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
       <c r="S83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T83">
         <v>0</v>
       </c>
       <c r="U83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V83">
         <v>0</v>
       </c>
       <c r="W83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X83">
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z83">
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
@@ -10948,73 +10948,73 @@
         <v>30</v>
       </c>
       <c r="E84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="R84">
         <v>0</v>
       </c>
       <c r="S84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="T84">
         <v>0</v>
       </c>
       <c r="U84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="V84">
         <v>0</v>
       </c>
       <c r="W84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="X84">
         <v>0</v>
       </c>
       <c r="Y84">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Z84">
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
@@ -11031,73 +11031,73 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R85">
         <v>0</v>
       </c>
       <c r="S85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V85">
         <v>0</v>
       </c>
       <c r="W85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="X85">
         <v>0</v>
       </c>
       <c r="Y85">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z85">
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
@@ -11114,73 +11114,73 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R86">
         <v>0</v>
       </c>
       <c r="S86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T86">
         <v>0</v>
       </c>
       <c r="U86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V86">
         <v>0</v>
       </c>
       <c r="W86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X86">
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z86">
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
@@ -11197,73 +11197,73 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F87">
         <v>30</v>
       </c>
       <c r="G87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L87">
         <v>30</v>
       </c>
       <c r="M87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R87">
         <v>0</v>
       </c>
       <c r="S87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T87">
         <v>0</v>
       </c>
       <c r="U87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V87">
         <v>0</v>
       </c>
       <c r="W87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X87">
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z87">
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
@@ -11280,73 +11280,73 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R88">
         <v>0</v>
       </c>
       <c r="S88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T88">
         <v>0</v>
       </c>
       <c r="U88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V88">
         <v>0</v>
       </c>
       <c r="W88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X88">
         <v>0</v>
       </c>
       <c r="Y88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z88">
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
@@ -11363,73 +11363,73 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
       <c r="O89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V89">
         <v>0</v>
       </c>
       <c r="W89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X89">
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z89">
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
@@ -11526,7 +11526,7 @@
         <v>18</v>
       </c>
       <c r="D91">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -11609,76 +11609,76 @@
         <v>19</v>
       </c>
       <c r="D92">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R92">
         <v>0</v>
       </c>
       <c r="S92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T92">
         <v>0</v>
       </c>
       <c r="U92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V92">
         <v>0</v>
       </c>
       <c r="W92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X92">
         <v>0</v>
       </c>
       <c r="Y92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z92">
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
@@ -11695,73 +11695,73 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
       </c>
       <c r="S93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T93">
         <v>0</v>
       </c>
       <c r="U93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V93">
         <v>0</v>
       </c>
       <c r="W93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X93">
         <v>0</v>
       </c>
       <c r="Y93">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z93">
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
@@ -11778,73 +11778,73 @@
         <v>33</v>
       </c>
       <c r="E94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R94">
         <v>0</v>
       </c>
       <c r="S94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="T94">
         <v>0</v>
       </c>
       <c r="U94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="V94">
         <v>0</v>
       </c>
       <c r="W94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="X94">
         <v>0</v>
       </c>
       <c r="Y94">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Z94">
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
@@ -11861,73 +11861,73 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="R95">
         <v>0</v>
       </c>
       <c r="S95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="T95">
         <v>0</v>
       </c>
       <c r="U95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="V95">
         <v>0</v>
       </c>
       <c r="W95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="X95">
         <v>0</v>
       </c>
       <c r="Y95">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Z95">
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.25">
@@ -11944,73 +11944,73 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>33</v>
       </c>
       <c r="I96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="R96">
         <v>0</v>
       </c>
       <c r="S96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="T96">
         <v>0</v>
       </c>
       <c r="U96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="V96">
         <v>0</v>
       </c>
       <c r="W96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="X96">
         <v>0</v>
       </c>
       <c r="Y96">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="Z96">
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
@@ -12027,73 +12027,73 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>33</v>
       </c>
       <c r="G97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L97">
         <v>33</v>
       </c>
       <c r="M97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R97">
         <v>0</v>
       </c>
       <c r="S97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V97">
         <v>0</v>
       </c>
       <c r="W97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X97">
         <v>0</v>
       </c>
       <c r="Y97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z97">
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
@@ -12110,73 +12110,73 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
       <c r="M98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R98">
         <v>0</v>
       </c>
       <c r="S98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T98">
         <v>0</v>
       </c>
       <c r="U98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V98">
         <v>0</v>
       </c>
       <c r="W98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X98">
         <v>0</v>
       </c>
       <c r="Y98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z98">
         <v>0</v>
       </c>
       <c r="AA98">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
@@ -12273,7 +12273,7 @@
         <v>19</v>
       </c>
       <c r="D100">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -12356,7 +12356,7 @@
         <v>20</v>
       </c>
       <c r="D101">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -12442,73 +12442,73 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
       <c r="M102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="R102">
         <v>0</v>
       </c>
       <c r="S102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="T102">
         <v>0</v>
       </c>
       <c r="U102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="V102">
         <v>0</v>
       </c>
       <c r="W102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="X102">
         <v>0</v>
       </c>
       <c r="Y102">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Z102">
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
@@ -12525,73 +12525,73 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
       <c r="O103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="R103">
         <v>0</v>
       </c>
       <c r="S103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="V103">
         <v>0</v>
       </c>
       <c r="W103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="X103">
         <v>0</v>
       </c>
       <c r="Y103">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Z103">
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
@@ -12608,73 +12608,73 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
       <c r="M104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="R104">
         <v>0</v>
       </c>
       <c r="S104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="T104">
         <v>0</v>
       </c>
       <c r="U104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="V104">
         <v>0</v>
       </c>
       <c r="W104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="X104">
         <v>0</v>
       </c>
       <c r="Y104">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Z104">
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>40</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
@@ -12691,73 +12691,73 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F105">
         <v>36</v>
       </c>
       <c r="G105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="H105">
         <v>36</v>
       </c>
       <c r="I105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="R105">
         <v>0</v>
       </c>
       <c r="S105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="V105">
         <v>0</v>
       </c>
       <c r="W105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="X105">
         <v>0</v>
       </c>
       <c r="Y105">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Z105">
         <v>0</v>
       </c>
       <c r="AA105">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
@@ -12774,73 +12774,73 @@
         <v>36</v>
       </c>
       <c r="E106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
       <c r="O106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="R106">
         <v>0</v>
       </c>
       <c r="S106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="T106">
         <v>0</v>
       </c>
       <c r="U106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="V106">
         <v>0</v>
       </c>
       <c r="W106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="X106">
         <v>0</v>
       </c>
       <c r="Y106">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="Z106">
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
@@ -12857,73 +12857,73 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N107">
         <v>0</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="R107">
         <v>0</v>
       </c>
       <c r="S107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V107">
         <v>0</v>
       </c>
       <c r="W107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X107">
         <v>0</v>
       </c>
       <c r="Y107">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Z107">
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
@@ -13020,7 +13020,7 @@
         <v>20</v>
       </c>
       <c r="D109">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -13094,13 +13094,13 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D110">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -13398,7 +13398,7 @@
     </row>
     <row r="118" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D118">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -13444,13 +13444,13 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -13486,17 +13486,17 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="str">
         <f>IF(SUM(dane!E2,dane!G2,dane!I2)&lt;&gt;0,SUM(dane!D2,dane!F2,dane!H2)/SUM(dane!E2,dane!G2,dane!I2),"N/A")</f>
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="1">
+        <v>N/A</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f>IF(SUM(dane!E2,dane!G2,dane!I2,dane!K2,dane!M2,dane!O2)&lt;&gt;0,SUM(dane!D2,dane!F2,dane!H2,dane!J2,dane!L2,dane!N2)/SUM(dane!E2,dane!G2,dane!I2,dane!K2,dane!M2,dane!O2),"N/A")</f>
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="D5" s="1">
+        <v>N/A</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <f>IF(SUM(dane!E2,dane!G2,dane!I2,dane!K2,dane!M2,dane!O2,dane!Q2,dane!S2,dane!U2,dane!W2,dane!Y2,dane!AA2)&lt;&gt;0,SUM(dane!D2,dane!F2,dane!H2,dane!J2,dane!L2,dane!N2,dane!P2,dane!R2,dane!T2,dane!V2,dane!X2,dane!Z2)/SUM(dane!E2,dane!G2,dane!I2,dane!K2,dane!M2,dane!O2,dane!Q2,dane!S2,dane!U2,dane!W2,dane!Y2,dane!AA2),"N/A")</f>
-        <v>0.34583333333333333</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -13505,15 +13505,15 @@
       </c>
       <c r="B6" s="1">
         <f>IF(SUM(dane!E3,dane!G3,dane!I3)&lt;&gt;0,SUM(dane!D3,dane!F3,dane!H3)/SUM(dane!E3,dane!G3,dane!I3),"N/A")</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C6" s="1">
         <f>IF(SUM(dane!E3,dane!G3,dane!I3,dane!K3,dane!M3,dane!O3)&lt;&gt;0,SUM(dane!D3,dane!F3,dane!H3,dane!J3,dane!L3,dane!N3)/SUM(dane!E3,dane!G3,dane!I3,dane!K3,dane!M3,dane!O3),"N/A")</f>
-        <v>6.0416666666666667E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="D6" s="1">
         <f>IF(SUM(dane!E3,dane!G3,dane!I3,dane!K3,dane!M3,dane!O3,dane!Q3,dane!S3,dane!U3,dane!W3,dane!Y3,dane!AA3)&lt;&gt;0,SUM(dane!D3,dane!F3,dane!H3,dane!J3,dane!L3,dane!N3,dane!P3,dane!R3,dane!T3,dane!V3,dane!X3,dane!Z3)/SUM(dane!E3,dane!G3,dane!I3,dane!K3,dane!M3,dane!O3,dane!Q3,dane!S3,dane!U3,dane!W3,dane!Y3,dane!AA3),"N/A")</f>
-        <v>4.8958333333333333E-2</v>
+        <v>2.6643990929705215E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -13522,15 +13522,15 @@
       </c>
       <c r="B7" s="1">
         <f>IF(SUM(dane!E4,dane!G4,dane!I4)&lt;&gt;0,SUM(dane!D4,dane!F4,dane!H4)/SUM(dane!E4,dane!G4,dane!I4),"N/A")</f>
-        <v>0.05</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="C7" s="1">
         <f>IF(SUM(dane!E4,dane!G4,dane!I4,dane!K4,dane!M4,dane!O4)&lt;&gt;0,SUM(dane!D4,dane!F4,dane!H4,dane!J4,dane!L4,dane!N4)/SUM(dane!E4,dane!G4,dane!I4,dane!K4,dane!M4,dane!O4),"N/A")</f>
-        <v>0.05</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="D7" s="1">
         <f>IF(SUM(dane!E4,dane!G4,dane!I4,dane!K4,dane!M4,dane!O4,dane!Q4,dane!S4,dane!U4,dane!W4,dane!Y4,dane!AA4)&lt;&gt;0,SUM(dane!D4,dane!F4,dane!H4,dane!J4,dane!L4,dane!N4,dane!P4,dane!R4,dane!T4,dane!V4,dane!X4,dane!Z4)/SUM(dane!E4,dane!G4,dane!I4,dane!K4,dane!M4,dane!O4,dane!Q4,dane!S4,dane!U4,dane!W4,dane!Y4,dane!AA4),"N/A")</f>
-        <v>0.05</v>
+        <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -13539,15 +13539,15 @@
       </c>
       <c r="B8" s="1">
         <f>IF(SUM(dane!E5,dane!G5,dane!I5)&lt;&gt;0,SUM(dane!D5,dane!F5,dane!H5)/SUM(dane!E5,dane!G5,dane!I5),"N/A")</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C8" s="1">
         <f>IF(SUM(dane!E5,dane!G5,dane!I5,dane!K5,dane!M5,dane!O5)&lt;&gt;0,SUM(dane!D5,dane!F5,dane!H5,dane!J5,dane!L5,dane!N5)/SUM(dane!E5,dane!G5,dane!I5,dane!K5,dane!M5,dane!O5),"N/A")</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D8" s="1">
         <f>IF(SUM(dane!E5,dane!G5,dane!I5,dane!K5,dane!M5,dane!O5,dane!Q5,dane!S5,dane!U5,dane!W5,dane!Y5,dane!AA5)&lt;&gt;0,SUM(dane!D5,dane!F5,dane!H5,dane!J5,dane!L5,dane!N5,dane!P5,dane!R5,dane!T5,dane!V5,dane!X5,dane!Z5)/SUM(dane!E5,dane!G5,dane!I5,dane!K5,dane!M5,dane!O5,dane!Q5,dane!S5,dane!U5,dane!W5,dane!Y5,dane!AA5),"N/A")</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -13556,15 +13556,15 @@
       </c>
       <c r="B9" s="1">
         <f>IF(SUM(dane!E6,dane!G6,dane!I6)&lt;&gt;0,SUM(dane!D6,dane!F6,dane!H6)/SUM(dane!E6,dane!G6,dane!I6),"N/A")</f>
-        <v>0.15</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="C9" s="1">
         <f>IF(SUM(dane!E6,dane!G6,dane!I6,dane!K6,dane!M6,dane!O6)&lt;&gt;0,SUM(dane!D6,dane!F6,dane!H6,dane!J6,dane!L6,dane!N6)/SUM(dane!E6,dane!G6,dane!I6,dane!K6,dane!M6,dane!O6),"N/A")</f>
-        <v>0.15</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="D9" s="1">
         <f>IF(SUM(dane!E6,dane!G6,dane!I6,dane!K6,dane!M6,dane!O6,dane!Q6,dane!S6,dane!U6,dane!W6,dane!Y6,dane!AA6)&lt;&gt;0,SUM(dane!D6,dane!F6,dane!H6,dane!J6,dane!L6,dane!N6,dane!P6,dane!R6,dane!T6,dane!V6,dane!X6,dane!Z6)/SUM(dane!E6,dane!G6,dane!I6,dane!K6,dane!M6,dane!O6,dane!Q6,dane!S6,dane!U6,dane!W6,dane!Y6,dane!AA6),"N/A")</f>
-        <v>0.15</v>
+        <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -13573,15 +13573,15 @@
       </c>
       <c r="B10" s="1">
         <f>IF(SUM(dane!E7,dane!G7,dane!I7)&lt;&gt;0,SUM(dane!D7,dane!F7,dane!H7)/SUM(dane!E7,dane!G7,dane!I7),"N/A")</f>
-        <v>0.15</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C10" s="1">
         <f>IF(SUM(dane!E7,dane!G7,dane!I7,dane!K7,dane!M7,dane!O7)&lt;&gt;0,SUM(dane!D7,dane!F7,dane!H7,dane!J7,dane!L7,dane!N7)/SUM(dane!E7,dane!G7,dane!I7,dane!K7,dane!M7,dane!O7),"N/A")</f>
-        <v>0.15</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="D10" s="1">
         <f>IF(SUM(dane!E7,dane!G7,dane!I7,dane!K7,dane!M7,dane!O7,dane!Q7,dane!S7,dane!U7,dane!W7,dane!Y7,dane!AA7)&lt;&gt;0,SUM(dane!D7,dane!F7,dane!H7,dane!J7,dane!L7,dane!N7,dane!P7,dane!R7,dane!T7,dane!V7,dane!X7,dane!Z7)/SUM(dane!E7,dane!G7,dane!I7,dane!K7,dane!M7,dane!O7,dane!Q7,dane!S7,dane!U7,dane!W7,dane!Y7,dane!AA7),"N/A")</f>
-        <v>0.15</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -13590,32 +13590,32 @@
       </c>
       <c r="B11" s="1">
         <f>IF(SUM(dane!E8,dane!G8,dane!I8)&lt;&gt;0,SUM(dane!D8,dane!F8,dane!H8)/SUM(dane!E8,dane!G8,dane!I8),"N/A")</f>
-        <v>0.15</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="C11" s="1">
         <f>IF(SUM(dane!E8,dane!G8,dane!I8,dane!K8,dane!M8,dane!O8)&lt;&gt;0,SUM(dane!D8,dane!F8,dane!H8,dane!J8,dane!L8,dane!N8)/SUM(dane!E8,dane!G8,dane!I8,dane!K8,dane!M8,dane!O8),"N/A")</f>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D11" s="1">
         <f>IF(SUM(dane!E8,dane!G8,dane!I8,dane!K8,dane!M8,dane!O8,dane!Q8,dane!S8,dane!U8,dane!W8,dane!Y8,dane!AA8)&lt;&gt;0,SUM(dane!D8,dane!F8,dane!H8,dane!J8,dane!L8,dane!N8,dane!P8,dane!R8,dane!T8,dane!V8,dane!X8,dane!Z8)/SUM(dane!E8,dane!G8,dane!I8,dane!K8,dane!M8,dane!O8,dane!Q8,dane!S8,dane!U8,dane!W8,dane!Y8,dane!AA8),"N/A")</f>
-        <v>0.15</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="1">
         <f>IF(SUM(dane!E9,dane!G9,dane!I9)&lt;&gt;0,SUM(dane!D9,dane!F9,dane!H9)/SUM(dane!E9,dane!G9,dane!I9),"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="C12" s="1" t="str">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C12" s="1">
         <f>IF(SUM(dane!E9,dane!G9,dane!I9,dane!K9,dane!M9,dane!O9)&lt;&gt;0,SUM(dane!D9,dane!F9,dane!H9,dane!J9,dane!L9,dane!N9)/SUM(dane!E9,dane!G9,dane!I9,dane!K9,dane!M9,dane!O9),"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="D12" s="1" t="str">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D12" s="1">
         <f>IF(SUM(dane!E9,dane!G9,dane!I9,dane!K9,dane!M9,dane!O9,dane!Q9,dane!S9,dane!U9,dane!W9,dane!Y9,dane!AA9)&lt;&gt;0,SUM(dane!D9,dane!F9,dane!H9,dane!J9,dane!L9,dane!N9,dane!P9,dane!R9,dane!T9,dane!V9,dane!X9,dane!Z9)/SUM(dane!E9,dane!G9,dane!I9,dane!K9,dane!M9,dane!O9,dane!Q9,dane!S9,dane!U9,dane!W9,dane!Y9,dane!AA9),"N/A")</f>
-        <v>N/A</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -13641,15 +13641,15 @@
       </c>
       <c r="B14" s="1">
         <f>AVERAGE(B5:B13)</f>
-        <v>0.13690476190476192</v>
+        <v>7.5024295432458699E-2</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14:D14" si="0">AVERAGE(C5:C13)</f>
-        <v>0.13601190476190478</v>
+        <v>8.8629737609329448E-2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.13854166666666667</v>
+        <v>6.8626498218334955E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -13692,17 +13692,17 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="1">
         <f>IF(SUM(dane!E12,dane!G12,dane!I12)&lt;&gt;0,SUM(dane!D12,dane!F12,dane!H12)/SUM(dane!E12,dane!G12,dane!I12),"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="C21" s="1" t="str">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C21" s="1">
         <f>IF(SUM(dane!E12,dane!G12,dane!I12,dane!K12,dane!M12,dane!O12)&lt;&gt;0,SUM(dane!D12,dane!F12,dane!H12,dane!J12,dane!L12,dane!N12)/SUM(dane!E12,dane!G12,dane!I12,dane!K12,dane!M12,dane!O12),"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="D21" s="1" t="str">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D21" s="1">
         <f>IF(SUM(dane!E12,dane!G12,dane!I12,dane!K12,dane!M12,dane!O12,dane!Q12,dane!S12,dane!U12,dane!W12,dane!Y12,dane!AA12)&lt;&gt;0,SUM(dane!D12,dane!F12,dane!H12,dane!J12,dane!L12,dane!N12,dane!P12,dane!R12,dane!T12,dane!V12,dane!X12,dane!Z12)/SUM(dane!E12,dane!G12,dane!I12,dane!K12,dane!M12,dane!O12,dane!Q12,dane!S12,dane!U12,dane!W12,dane!Y12,dane!AA12),"N/A")</f>
-        <v>N/A</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -13711,15 +13711,15 @@
       </c>
       <c r="B22" s="1">
         <f>IF(SUM(dane!E13,dane!G13,dane!I13)&lt;&gt;0,SUM(dane!D13,dane!F13,dane!H13)/SUM(dane!E13,dane!G13,dane!I13),"N/A")</f>
-        <v>0.3</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="C22" s="1">
         <f>IF(SUM(dane!E13,dane!G13,dane!I13,dane!K13,dane!M13,dane!O13)&lt;&gt;0,SUM(dane!D13,dane!F13,dane!H13,dane!J13,dane!L13,dane!N13)/SUM(dane!E13,dane!G13,dane!I13,dane!K13,dane!M13,dane!O13),"N/A")</f>
-        <v>0.3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D22" s="1">
         <f>IF(SUM(dane!E13,dane!G13,dane!I13,dane!K13,dane!M13,dane!O13,dane!Q13,dane!S13,dane!U13,dane!W13,dane!Y13,dane!AA13)&lt;&gt;0,SUM(dane!D13,dane!F13,dane!H13,dane!J13,dane!L13,dane!N13,dane!P13,dane!R13,dane!T13,dane!V13,dane!X13,dane!Z13)/SUM(dane!E13,dane!G13,dane!I13,dane!K13,dane!M13,dane!O13,dane!Q13,dane!S13,dane!U13,dane!W13,dane!Y13,dane!AA13),"N/A")</f>
-        <v>0.3</v>
+        <v>0.30952380952380953</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -13728,49 +13728,49 @@
       </c>
       <c r="B23" s="1">
         <f>IF(SUM(dane!E14,dane!G14,dane!I14)&lt;&gt;0,SUM(dane!D14,dane!F14,dane!H14)/SUM(dane!E14,dane!G14,dane!I14),"N/A")</f>
-        <v>0.3</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="C23" s="1">
         <f>IF(SUM(dane!E14,dane!G14,dane!I14,dane!K14,dane!M14,dane!O14)&lt;&gt;0,SUM(dane!D14,dane!F14,dane!H14,dane!J14,dane!L14,dane!N14)/SUM(dane!E14,dane!G14,dane!I14,dane!K14,dane!M14,dane!O14),"N/A")</f>
-        <v>0.3</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="D23" s="1">
         <f>IF(SUM(dane!E14,dane!G14,dane!I14,dane!K14,dane!M14,dane!O14,dane!Q14,dane!S14,dane!U14,dane!W14,dane!Y14,dane!AA14)&lt;&gt;0,SUM(dane!D14,dane!F14,dane!H14,dane!J14,dane!L14,dane!N14,dane!P14,dane!R14,dane!T14,dane!V14,dane!X14,dane!Z14)/SUM(dane!E14,dane!G14,dane!I14,dane!K14,dane!M14,dane!O14,dane!Q14,dane!S14,dane!U14,dane!W14,dane!Y14,dane!AA14),"N/A")</f>
-        <v>0.3</v>
+        <v>9.5238095238095233E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="str">
         <f>IF(SUM(dane!E15,dane!G15,dane!I15)&lt;&gt;0,SUM(dane!D15,dane!F15,dane!H15)/SUM(dane!E15,dane!G15,dane!I15),"N/A")</f>
-        <v>0.15</v>
-      </c>
-      <c r="C24" s="1">
+        <v>N/A</v>
+      </c>
+      <c r="C24" s="1" t="str">
         <f>IF(SUM(dane!E15,dane!G15,dane!I15,dane!K15,dane!M15,dane!O15)&lt;&gt;0,SUM(dane!D15,dane!F15,dane!H15,dane!J15,dane!L15,dane!N15)/SUM(dane!E15,dane!G15,dane!I15,dane!K15,dane!M15,dane!O15),"N/A")</f>
-        <v>0.15</v>
-      </c>
-      <c r="D24" s="1">
+        <v>N/A</v>
+      </c>
+      <c r="D24" s="1" t="str">
         <f>IF(SUM(dane!E15,dane!G15,dane!I15,dane!K15,dane!M15,dane!O15,dane!Q15,dane!S15,dane!U15,dane!W15,dane!Y15,dane!AA15)&lt;&gt;0,SUM(dane!D15,dane!F15,dane!H15,dane!J15,dane!L15,dane!N15,dane!P15,dane!R15,dane!T15,dane!V15,dane!X15,dane!Z15)/SUM(dane!E15,dane!G15,dane!I15,dane!K15,dane!M15,dane!O15,dane!Q15,dane!S15,dane!U15,dane!W15,dane!Y15,dane!AA15),"N/A")</f>
-        <v>0.15</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="str">
         <f>IF(SUM(dane!E16,dane!G16,dane!I16)&lt;&gt;0,SUM(dane!D16,dane!F16,dane!H16)/SUM(dane!E16,dane!G16,dane!I16),"N/A")</f>
-        <v>0.15</v>
-      </c>
-      <c r="C25" s="1">
+        <v>N/A</v>
+      </c>
+      <c r="C25" s="1" t="str">
         <f>IF(SUM(dane!E16,dane!G16,dane!I16,dane!K16,dane!M16,dane!O16)&lt;&gt;0,SUM(dane!D16,dane!F16,dane!H16,dane!J16,dane!L16,dane!N16)/SUM(dane!E16,dane!G16,dane!I16,dane!K16,dane!M16,dane!O16),"N/A")</f>
-        <v>0.15</v>
-      </c>
-      <c r="D25" s="1">
+        <v>N/A</v>
+      </c>
+      <c r="D25" s="1" t="str">
         <f>IF(SUM(dane!E16,dane!G16,dane!I16,dane!K16,dane!M16,dane!O16,dane!Q16,dane!S16,dane!U16,dane!W16,dane!Y16,dane!AA16)&lt;&gt;0,SUM(dane!D16,dane!F16,dane!H16,dane!J16,dane!L16,dane!N16,dane!P16,dane!R16,dane!T16,dane!V16,dane!X16,dane!Z16)/SUM(dane!E16,dane!G16,dane!I16,dane!K16,dane!M16,dane!O16,dane!Q16,dane!S16,dane!U16,dane!W16,dane!Y16,dane!AA16),"N/A")</f>
-        <v>0.15</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -13779,15 +13779,15 @@
       </c>
       <c r="B26" s="1">
         <f>IF(SUM(dane!E17,dane!G17,dane!I17)&lt;&gt;0,SUM(dane!D17,dane!F17,dane!H17)/SUM(dane!E17,dane!G17,dane!I17),"N/A")</f>
-        <v>0.1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C26" s="1">
         <f>IF(SUM(dane!E17,dane!G17,dane!I17,dane!K17,dane!M17,dane!O17)&lt;&gt;0,SUM(dane!D17,dane!F17,dane!H17,dane!J17,dane!L17,dane!N17)/SUM(dane!E17,dane!G17,dane!I17,dane!K17,dane!M17,dane!O17),"N/A")</f>
-        <v>0.1</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D26" s="1">
         <f>IF(SUM(dane!E17,dane!G17,dane!I17,dane!K17,dane!M17,dane!O17,dane!Q17,dane!S17,dane!U17,dane!W17,dane!Y17,dane!AA17)&lt;&gt;0,SUM(dane!D17,dane!F17,dane!H17,dane!J17,dane!L17,dane!N17,dane!P17,dane!R17,dane!T17,dane!V17,dane!X17,dane!Z17)/SUM(dane!E17,dane!G17,dane!I17,dane!K17,dane!M17,dane!O17,dane!Q17,dane!S17,dane!U17,dane!W17,dane!Y17,dane!AA17),"N/A")</f>
-        <v>0.1</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -13796,32 +13796,32 @@
       </c>
       <c r="B27" s="1">
         <f>IF(SUM(dane!E18,dane!G18,dane!I18)&lt;&gt;0,SUM(dane!D18,dane!F18,dane!H18)/SUM(dane!E18,dane!G18,dane!I18),"N/A")</f>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C27" s="1">
         <f>IF(SUM(dane!E18,dane!G18,dane!I18,dane!K18,dane!M18,dane!O18)&lt;&gt;0,SUM(dane!D18,dane!F18,dane!H18,dane!J18,dane!L18,dane!N18)/SUM(dane!E18,dane!G18,dane!I18,dane!K18,dane!M18,dane!O18),"N/A")</f>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D27" s="1">
         <f>IF(SUM(dane!E18,dane!G18,dane!I18,dane!K18,dane!M18,dane!O18,dane!Q18,dane!S18,dane!U18,dane!W18,dane!Y18,dane!AA18)&lt;&gt;0,SUM(dane!D18,dane!F18,dane!H18,dane!J18,dane!L18,dane!N18,dane!P18,dane!R18,dane!T18,dane!V18,dane!X18,dane!Z18)/SUM(dane!E18,dane!G18,dane!I18,dane!K18,dane!M18,dane!O18,dane!Q18,dane!S18,dane!U18,dane!W18,dane!Y18,dane!AA18),"N/A")</f>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="str">
         <f>IF(SUM(dane!E19,dane!G19,dane!I19)&lt;&gt;0,SUM(dane!D19,dane!F19,dane!H19)/SUM(dane!E19,dane!G19,dane!I19),"N/A")</f>
-        <v>0.3</v>
-      </c>
-      <c r="C28" s="1">
+        <v>N/A</v>
+      </c>
+      <c r="C28" s="1" t="str">
         <f>IF(SUM(dane!E19,dane!G19,dane!I19,dane!K19,dane!M19,dane!O19)&lt;&gt;0,SUM(dane!D19,dane!F19,dane!H19,dane!J19,dane!L19,dane!N19)/SUM(dane!E19,dane!G19,dane!I19,dane!K19,dane!M19,dane!O19),"N/A")</f>
-        <v>0.3</v>
-      </c>
-      <c r="D28" s="1">
+        <v>N/A</v>
+      </c>
+      <c r="D28" s="1" t="str">
         <f>IF(SUM(dane!E19,dane!G19,dane!I19,dane!K19,dane!M19,dane!O19,dane!Q19,dane!S19,dane!U19,dane!W19,dane!Y19,dane!AA19)&lt;&gt;0,SUM(dane!D19,dane!F19,dane!H19,dane!J19,dane!L19,dane!N19,dane!P19,dane!R19,dane!T19,dane!V19,dane!X19,dane!Z19)/SUM(dane!E19,dane!G19,dane!I19,dane!K19,dane!M19,dane!O19,dane!Q19,dane!S19,dane!U19,dane!W19,dane!Y19,dane!AA19),"N/A")</f>
-        <v>0.3</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -13830,15 +13830,15 @@
       </c>
       <c r="B29" s="1">
         <f>AVERAGE((B20:B28))</f>
-        <v>0.20714285714285713</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ref="C29:D29" si="1">AVERAGE((C20:C28))</f>
-        <v>0.20714285714285713</v>
+        <v>0.2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>0.20714285714285713</v>
+        <v>0.19523809523809521</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -13864,17 +13864,17 @@
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="e">
         <f>AVERAGE(B5,B20)</f>
-        <v>0.3</v>
-      </c>
-      <c r="C35" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35" s="1" t="e">
         <f>AVERAGE(C5,C20)</f>
-        <v>0.31666666666666665</v>
-      </c>
-      <c r="D35" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="1" t="e">
         <f>AVERAGE(D5,D20)</f>
-        <v>0.34583333333333333</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -13883,15 +13883,15 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ref="B36:D43" si="2">AVERAGE(B6,B21)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.17857142857142855</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="2"/>
-        <v>6.0416666666666667E-2</v>
+        <v>0.17857142857142855</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>4.8958333333333333E-2</v>
+        <v>0.15617913832199545</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -13900,15 +13900,15 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="2"/>
-        <v>0.17499999999999999</v>
+        <v>0.20068027210884354</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="2"/>
-        <v>0.17499999999999999</v>
+        <v>0.17687074829931973</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="2"/>
-        <v>0.17499999999999999</v>
+        <v>0.16496598639455784</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -13917,15 +13917,15 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="2"/>
-        <v>0.1875</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="2"/>
-        <v>0.1875</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="2"/>
-        <v>0.1875</v>
+        <v>0.11904761904761904</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -13934,15 +13934,15 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -13951,15 +13951,15 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -13968,15 +13968,15 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>9.5238095238095233E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -13985,32 +13985,32 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="C43" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C43" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="D43" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -14018,16 +14018,16 @@
         <v>46</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" ref="B36:D44" si="3">AVERAGE(B14,B29)</f>
-        <v>0.17202380952380952</v>
+        <f t="shared" ref="B44:D44" si="3">AVERAGE(B14,B29)</f>
+        <v>0.1422740524781341</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="3"/>
-        <v>0.17157738095238095</v>
+        <v>0.14431486880466474</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="3"/>
-        <v>0.1728422619047619</v>
+        <v>0.13193229672821508</v>
       </c>
     </row>
   </sheetData>

--- a/BusyForcast/test_wynik.xlsx
+++ b/BusyForcast/test_wynik.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="dane" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -683,7 +683,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="835279888"/>
@@ -742,7 +742,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="835282184"/>
@@ -784,7 +784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -814,7 +814,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -903,7 +903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1289,7 +1289,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="836136952"/>
@@ -1348,7 +1348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="836138920"/>
@@ -1390,7 +1390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1420,7 +1420,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1496,7 +1496,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1882,7 +1882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="831247504"/>
@@ -1941,7 +1941,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="831244224"/>
@@ -1983,7 +1983,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2013,7 +2013,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4031,8 +4031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA118"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4222,73 +4222,73 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>42</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>42</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>42</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>42</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>42</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>42</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>42</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>42</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>42</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>42</v>
       </c>
       <c r="X3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>42</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>42</v>
@@ -4305,73 +4305,73 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>147</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>147</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>147</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>147</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>147</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>147</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>147</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>147</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>147</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>147</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>147</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>147</v>
@@ -4388,13 +4388,13 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>21</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>21</v>
@@ -4406,55 +4406,55 @@
         <v>21</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>21</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>21</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>21</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>21</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>21</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>21</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>21</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>21</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>21</v>
@@ -4471,73 +4471,73 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>105</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>105</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>105</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>105</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>105</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>105</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>105</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>105</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>105</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>105</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>105</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>105</v>
@@ -4554,73 +4554,73 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>42</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>42</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>42</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>42</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>42</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>42</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>42</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>42</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>42</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>42</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>42</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>42</v>
@@ -4637,73 +4637,73 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>63</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>63</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>63</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>63</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>63</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>63</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>63</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>63</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>63</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>63</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>63</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>63</v>
@@ -4720,73 +4720,73 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>21</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>21</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>21</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>21</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>21</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>21</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>21</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>21</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>21</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>21</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>21</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>21</v>
@@ -4969,73 +4969,73 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>21</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>21</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>21</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>21</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>21</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>21</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>21</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <v>21</v>
       </c>
       <c r="V12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>21</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>21</v>
       </c>
       <c r="Z12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>21</v>
@@ -5052,73 +5052,73 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>21</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>21</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>21</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>21</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>21</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>21</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>21</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>21</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <v>21</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>21</v>
       </c>
       <c r="X13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>21</v>
       </c>
       <c r="Z13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>21</v>
@@ -5135,73 +5135,73 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>63</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>63</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>63</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>63</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>63</v>
       </c>
       <c r="N14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>63</v>
       </c>
       <c r="P14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>63</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>63</v>
       </c>
       <c r="T14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>63</v>
       </c>
       <c r="V14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>63</v>
       </c>
       <c r="X14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>63</v>
       </c>
       <c r="Z14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>63</v>
@@ -5218,73 +5218,73 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -5301,73 +5301,73 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -5384,73 +5384,73 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>42</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>42</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>42</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>42</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>42</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>42</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>42</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>42</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>42</v>
       </c>
       <c r="V17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>42</v>
       </c>
       <c r="X17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>42</v>
       </c>
       <c r="Z17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>42</v>
@@ -5467,73 +5467,73 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>42</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>42</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>42</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>42</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>42</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>42</v>
       </c>
       <c r="P18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>42</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>42</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>42</v>
       </c>
       <c r="V18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>42</v>
       </c>
       <c r="X18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>42</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>42</v>
@@ -5716,73 +5716,73 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>105</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>105</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>105</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>105</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>105</v>
       </c>
       <c r="N21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>105</v>
       </c>
       <c r="P21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>105</v>
       </c>
       <c r="R21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>105</v>
       </c>
       <c r="T21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>105</v>
       </c>
       <c r="V21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>105</v>
       </c>
       <c r="X21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>105</v>
       </c>
       <c r="Z21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>105</v>
@@ -5799,73 +5799,73 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>63</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>63</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>63</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>63</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>63</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>63</v>
       </c>
       <c r="P22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>63</v>
       </c>
       <c r="R22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>63</v>
       </c>
       <c r="T22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>63</v>
       </c>
       <c r="V22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W22">
         <v>63</v>
       </c>
       <c r="X22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>63</v>
       </c>
       <c r="Z22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>63</v>
@@ -5882,73 +5882,73 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>189</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>189</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>189</v>
       </c>
       <c r="J23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>189</v>
       </c>
       <c r="L23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>189</v>
       </c>
       <c r="N23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>189</v>
       </c>
       <c r="P23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>189</v>
       </c>
       <c r="R23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>189</v>
       </c>
       <c r="T23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>189</v>
       </c>
       <c r="V23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>189</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>189</v>
       </c>
       <c r="Z23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>189</v>
@@ -5965,73 +5965,73 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>105</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>105</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>105</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>105</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>105</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>105</v>
       </c>
       <c r="P24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>105</v>
       </c>
       <c r="R24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>105</v>
       </c>
       <c r="T24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>105</v>
       </c>
       <c r="V24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>105</v>
       </c>
       <c r="X24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>105</v>
       </c>
       <c r="Z24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>105</v>
@@ -6048,73 +6048,73 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>42</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>42</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>42</v>
       </c>
       <c r="J25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>42</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>42</v>
       </c>
       <c r="N25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <v>42</v>
       </c>
       <c r="P25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>42</v>
       </c>
       <c r="R25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>42</v>
       </c>
       <c r="T25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>42</v>
       </c>
       <c r="V25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <v>42</v>
       </c>
       <c r="X25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>42</v>
       </c>
       <c r="Z25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>42</v>
@@ -6131,73 +6131,73 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>21</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>21</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>21</v>
       </c>
       <c r="J26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>21</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>21</v>
       </c>
       <c r="N26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>21</v>
       </c>
       <c r="P26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>21</v>
       </c>
       <c r="R26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>21</v>
       </c>
       <c r="T26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>21</v>
       </c>
       <c r="V26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>21</v>
       </c>
       <c r="X26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>21</v>
       </c>
       <c r="Z26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>21</v>
@@ -6214,73 +6214,73 @@
         <v>11</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>21</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>21</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>21</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>21</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>21</v>
       </c>
       <c r="N27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>21</v>
       </c>
       <c r="P27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>21</v>
       </c>
       <c r="R27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>21</v>
       </c>
       <c r="T27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>21</v>
       </c>
       <c r="V27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>21</v>
       </c>
       <c r="X27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>21</v>
       </c>
       <c r="Z27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>21</v>
@@ -6463,73 +6463,73 @@
         <v>12</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -6546,73 +6546,73 @@
         <v>12</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -6629,73 +6629,73 @@
         <v>12</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>63</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>63</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>63</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>63</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>63</v>
       </c>
       <c r="N32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>63</v>
       </c>
       <c r="P32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>63</v>
       </c>
       <c r="R32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>63</v>
       </c>
       <c r="T32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>63</v>
       </c>
       <c r="V32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>63</v>
       </c>
       <c r="X32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>63</v>
       </c>
       <c r="Z32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA32">
         <v>63</v>
@@ -6712,73 +6712,73 @@
         <v>12</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>63</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>63</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>63</v>
       </c>
       <c r="J33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>63</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>63</v>
       </c>
       <c r="N33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>63</v>
       </c>
       <c r="P33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>63</v>
       </c>
       <c r="R33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <v>63</v>
       </c>
       <c r="T33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>63</v>
       </c>
       <c r="V33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <v>63</v>
       </c>
       <c r="X33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>63</v>
       </c>
       <c r="Z33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <v>63</v>
@@ -6795,73 +6795,73 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>42</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>42</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>42</v>
       </c>
       <c r="J34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>42</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>42</v>
       </c>
       <c r="N34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>42</v>
       </c>
       <c r="P34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>42</v>
       </c>
       <c r="R34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>42</v>
       </c>
       <c r="T34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>42</v>
       </c>
       <c r="V34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W34">
         <v>42</v>
       </c>
       <c r="X34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>42</v>
       </c>
       <c r="Z34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA34">
         <v>42</v>
@@ -6878,73 +6878,73 @@
         <v>12</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -6961,73 +6961,73 @@
         <v>12</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -7210,73 +7210,73 @@
         <v>13</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>21</v>
       </c>
       <c r="F39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>21</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>21</v>
       </c>
       <c r="J39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>21</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>21</v>
       </c>
       <c r="N39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>21</v>
       </c>
       <c r="P39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>21</v>
       </c>
       <c r="R39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>21</v>
       </c>
       <c r="T39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>21</v>
       </c>
       <c r="V39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>21</v>
       </c>
       <c r="X39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>21</v>
       </c>
       <c r="Z39">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>21</v>
@@ -7293,73 +7293,73 @@
         <v>13</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>63</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>63</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>63</v>
       </c>
       <c r="J40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>63</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>63</v>
       </c>
       <c r="N40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>63</v>
       </c>
       <c r="P40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>63</v>
       </c>
       <c r="R40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>63</v>
       </c>
       <c r="T40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>63</v>
       </c>
       <c r="V40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>63</v>
       </c>
       <c r="X40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>63</v>
       </c>
       <c r="Z40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>63</v>
@@ -7376,73 +7376,73 @@
         <v>13</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>105</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>105</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>105</v>
       </c>
       <c r="J41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>105</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>105</v>
       </c>
       <c r="N41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>105</v>
       </c>
       <c r="P41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <v>105</v>
       </c>
       <c r="R41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>105</v>
       </c>
       <c r="T41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U41">
         <v>105</v>
       </c>
       <c r="V41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W41">
         <v>105</v>
       </c>
       <c r="X41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>105</v>
       </c>
       <c r="Z41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <v>105</v>
@@ -7459,73 +7459,73 @@
         <v>13</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>63</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>63</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>63</v>
       </c>
       <c r="J42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>63</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>63</v>
       </c>
       <c r="N42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <v>63</v>
       </c>
       <c r="P42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>63</v>
       </c>
       <c r="R42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <v>63</v>
       </c>
       <c r="T42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <v>63</v>
       </c>
       <c r="V42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W42">
         <v>63</v>
       </c>
       <c r="X42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>63</v>
       </c>
       <c r="Z42">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <v>63</v>
@@ -7542,73 +7542,73 @@
         <v>13</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>63</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>63</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>63</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>63</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>63</v>
       </c>
       <c r="N43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>63</v>
       </c>
       <c r="P43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q43">
         <v>63</v>
       </c>
       <c r="R43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>63</v>
       </c>
       <c r="T43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>63</v>
       </c>
       <c r="V43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W43">
         <v>63</v>
       </c>
       <c r="X43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>63</v>
       </c>
       <c r="Z43">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>63</v>
@@ -7625,73 +7625,73 @@
         <v>13</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>21</v>
       </c>
       <c r="F44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>21</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>21</v>
       </c>
       <c r="J44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>21</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>21</v>
       </c>
       <c r="N44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O44">
         <v>21</v>
       </c>
       <c r="P44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>21</v>
       </c>
       <c r="R44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S44">
         <v>21</v>
       </c>
       <c r="T44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U44">
         <v>21</v>
       </c>
       <c r="V44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W44">
         <v>21</v>
       </c>
       <c r="X44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>21</v>
       </c>
       <c r="Z44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>21</v>
@@ -7708,73 +7708,73 @@
         <v>13</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>21</v>
       </c>
       <c r="F45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>21</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>21</v>
       </c>
       <c r="J45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>21</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>21</v>
       </c>
       <c r="N45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>21</v>
       </c>
       <c r="P45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>21</v>
       </c>
       <c r="R45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>21</v>
       </c>
       <c r="T45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U45">
         <v>21</v>
       </c>
       <c r="V45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W45">
         <v>21</v>
       </c>
       <c r="X45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>21</v>
       </c>
       <c r="Z45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>21</v>
@@ -8123,7 +8123,7 @@
         <v>14</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>21</v>
@@ -8455,7 +8455,7 @@
         <v>14</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>21</v>
@@ -8704,7 +8704,7 @@
         <v>15</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>42</v>
       </c>
       <c r="F59">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>42</v>
@@ -9214,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -9534,7 +9534,7 @@
         <v>16</v>
       </c>
       <c r="D67">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>63</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -10198,7 +10198,7 @@
         <v>17</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>17</v>
       </c>
       <c r="D77">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>42</v>
@@ -10619,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -10696,7 +10696,7 @@
         <v>17</v>
       </c>
       <c r="D81">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>21</v>
@@ -10708,7 +10708,7 @@
         <v>21</v>
       </c>
       <c r="H81">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>21</v>
@@ -10945,7 +10945,7 @@
         <v>18</v>
       </c>
       <c r="D84">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>63</v>
@@ -11028,19 +11028,19 @@
         <v>18</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E85">
         <v>63</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85">
         <v>63</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85">
         <v>63</v>
@@ -11094,7 +11094,7 @@
         <v>63</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA85">
         <v>63</v>
@@ -11200,7 +11200,7 @@
         <v>21</v>
       </c>
       <c r="F87">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>21</v>
@@ -11218,7 +11218,7 @@
         <v>21</v>
       </c>
       <c r="L87">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>21</v>
@@ -11692,7 +11692,7 @@
         <v>19</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>19</v>
       </c>
       <c r="D94">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>42</v>
@@ -11953,7 +11953,7 @@
         <v>42</v>
       </c>
       <c r="H96">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>42</v>
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -12688,19 +12688,19 @@
         <v>20</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>63</v>
       </c>
       <c r="F105">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>63</v>
       </c>
       <c r="H105">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>63</v>
@@ -12771,7 +12771,7 @@
         <v>20</v>
       </c>
       <c r="D106">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>42</v>
@@ -13032,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -13211,10 +13211,10 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="114" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D114">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -13443,7 +13443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
